--- a/data/huiyan/人流风险和新增确诊/人流风险和新增确诊-考虑当天-n=3.xlsx
+++ b/data/huiyan/人流风险和新增确诊/人流风险和新增确诊-考虑当天-n=3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>上海</t>
   </si>
@@ -207,6 +207,18 @@
   </si>
   <si>
     <t>2020-02-14</t>
+  </si>
+  <si>
+    <t>2020-02-15</t>
+  </si>
+  <si>
+    <t>2020-02-16</t>
+  </si>
+  <si>
+    <t>2020-02-17</t>
+  </si>
+  <si>
+    <t>2020-02-18</t>
   </si>
 </sst>
 </file>
@@ -555,7 +567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CS32"/>
+  <dimension ref="A1:CS36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1191,15 +1203,9 @@
       <c r="BJ5" t="s"/>
       <c r="BK5" t="s"/>
       <c r="BL5" t="s"/>
-      <c r="BM5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>1</v>
-      </c>
+      <c r="BM5" t="s"/>
+      <c r="BN5" t="s"/>
+      <c r="BO5" t="s"/>
       <c r="BP5" t="s"/>
       <c r="BQ5" t="s"/>
       <c r="BR5" t="s"/>
@@ -1278,7 +1284,7 @@
       <c r="AP6" t="s"/>
       <c r="AQ6" t="s"/>
       <c r="AR6" t="n">
-        <v>0.9556795126276018</v>
+        <v>0.9515829030204934</v>
       </c>
       <c r="AS6" t="n">
         <v>0</v>
@@ -1304,15 +1310,9 @@
       <c r="BJ6" t="s"/>
       <c r="BK6" t="s"/>
       <c r="BL6" t="s"/>
-      <c r="BM6" t="n">
-        <v>0.9563247157871204</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>4</v>
-      </c>
+      <c r="BM6" t="s"/>
+      <c r="BN6" t="s"/>
+      <c r="BO6" t="s"/>
       <c r="BP6" t="s"/>
       <c r="BQ6" t="s"/>
       <c r="BR6" t="s"/>
@@ -1391,7 +1391,7 @@
       <c r="AP7" t="s"/>
       <c r="AQ7" t="s"/>
       <c r="AR7" t="n">
-        <v>0.7489275956802403</v>
+        <v>0.7501545912743677</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
@@ -1417,15 +1417,9 @@
       <c r="BJ7" t="s"/>
       <c r="BK7" t="s"/>
       <c r="BL7" t="s"/>
-      <c r="BM7" t="n">
-        <v>0.9604467667922167</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>4</v>
-      </c>
+      <c r="BM7" t="s"/>
+      <c r="BN7" t="s"/>
+      <c r="BO7" t="s"/>
       <c r="BP7" t="s"/>
       <c r="BQ7" t="s"/>
       <c r="BR7" t="s"/>
@@ -1465,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1480,10 +1474,10 @@
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s"/>
       <c r="O8" t="s"/>
@@ -1492,16 +1486,16 @@
         <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T8" t="n">
         <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
         <v>3</v>
@@ -1516,10 +1510,10 @@
         <v>1</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF8" t="s"/>
       <c r="AG8" t="s"/>
@@ -1528,10 +1522,10 @@
         <v>1</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL8" t="s"/>
       <c r="AM8" t="s"/>
@@ -1540,7 +1534,7 @@
       <c r="AP8" t="s"/>
       <c r="AQ8" t="s"/>
       <c r="AR8" t="n">
-        <v>0.8713859468512004</v>
+        <v>0.8709301199461794</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
@@ -1561,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="BE8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF8" t="n">
         <v>1</v>
@@ -1570,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="BH8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI8" t="n">
         <v>1</v>
@@ -1579,13 +1573,13 @@
       <c r="BK8" t="s"/>
       <c r="BL8" t="s"/>
       <c r="BM8" t="n">
-        <v>0.8526705085342352</v>
+        <v>0.6786561190374526</v>
       </c>
       <c r="BN8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BP8" t="s"/>
       <c r="BQ8" t="s"/>
@@ -1609,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="CI8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CJ8" t="n">
         <v>1</v>
@@ -1629,10 +1623,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8021110961892801</v>
+        <v>0.9949628113304106</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1641,16 +1635,16 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s"/>
       <c r="I9" t="s"/>
       <c r="J9" t="s"/>
       <c r="K9" t="n">
-        <v>0.7419625449788834</v>
+        <v>0.7492725530421531</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1662,16 +1656,16 @@
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
-        <v>0.9985510135119959</v>
+        <v>0.9991721148378181</v>
       </c>
       <c r="R9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
       </c>
       <c r="T9" t="n">
-        <v>0.9612977620746782</v>
+        <v>0.9595494114320323</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1683,22 +1677,22 @@
         <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z9" t="n">
         <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.9737913938432597</v>
+        <v>0.9644306359630007</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -1710,13 +1704,13 @@
         <v>1</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH9" t="n">
         <v>1</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.8137179214011185</v>
+        <v>0.8154559147267885</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
@@ -1728,16 +1722,16 @@
         <v>1</v>
       </c>
       <c r="AM9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="s"/>
       <c r="AP9" t="s"/>
       <c r="AQ9" t="s"/>
       <c r="AR9" t="n">
-        <v>0.8502771840920642</v>
+        <v>0.849101873534913</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
@@ -1749,40 +1743,40 @@
         <v>1</v>
       </c>
       <c r="AV9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX9" t="n">
         <v>1</v>
       </c>
       <c r="AY9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BA9" t="n">
         <v>1</v>
       </c>
       <c r="BB9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.9992028713917629</v>
+        <v>0.9993939761061983</v>
       </c>
       <c r="BE9" t="n">
         <v>4</v>
       </c>
       <c r="BF9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.9332098860607552</v>
+        <v>0.9289335374643729</v>
       </c>
       <c r="BH9" t="n">
         <v>0</v>
@@ -1794,25 +1788,25 @@
         <v>1</v>
       </c>
       <c r="BK9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BL9" t="n">
         <v>1</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.8193968568493724</v>
+        <v>0.5084477544743432</v>
       </c>
       <c r="BN9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BO9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BP9" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BR9" t="n">
         <v>1</v>
@@ -1824,10 +1818,10 @@
         <v>1</v>
       </c>
       <c r="BW9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BX9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BY9" t="s"/>
       <c r="BZ9" t="s"/>
@@ -1836,22 +1830,22 @@
         <v>1</v>
       </c>
       <c r="CC9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CD9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CE9" t="n">
         <v>1</v>
       </c>
       <c r="CF9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CG9" t="n">
         <v>5</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.7044064619769769</v>
+        <v>0.701853761623812</v>
       </c>
       <c r="CI9" t="n">
         <v>0</v>
@@ -1874,16 +1868,16 @@
         <v>41</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5294922539807139</v>
+        <v>0.7543827307858177</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5659376457613573</v>
+        <v>0.5702628934837536</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1895,7 +1889,7 @@
       <c r="I10" t="s"/>
       <c r="J10" t="s"/>
       <c r="K10" t="n">
-        <v>0.5238245192073446</v>
+        <v>0.526537849958478</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1907,16 +1901,16 @@
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
-        <v>0.6417662327320355</v>
+        <v>0.6372150117969099</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6355770063163841</v>
+        <v>0.6552412681852167</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1925,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5756669518538655</v>
+        <v>0.5600526590863728</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1934,16 +1928,16 @@
         <v>1</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.5531988229853541</v>
+        <v>0.5496663023354991</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.6826165847052834</v>
+        <v>0.6970431797237988</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -1952,16 +1946,16 @@
         <v>1</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.5396694472175837</v>
+        <v>0.5346764921372285</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.5359413254869402</v>
+        <v>0.5468858523716004</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
@@ -1970,19 +1964,19 @@
         <v>1</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.9893097722799875</v>
+        <v>0.9895787768388492</v>
       </c>
       <c r="AM10" t="n">
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO10" t="s"/>
       <c r="AP10" t="s"/>
       <c r="AQ10" t="s"/>
       <c r="AR10" t="n">
-        <v>0.8423343258078708</v>
+        <v>0.8420221105189254</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
@@ -1991,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.5371560279649034</v>
+        <v>0.5343991068512265</v>
       </c>
       <c r="AV10" t="n">
         <v>0</v>
@@ -2000,16 +1994,16 @@
         <v>2</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.5791645454443751</v>
+        <v>0.5778606271471604</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.5470388241949772</v>
+        <v>0.5347200807190018</v>
       </c>
       <c r="BB10" t="n">
         <v>0</v>
@@ -2018,16 +2012,16 @@
         <v>1</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.6114272403288085</v>
+        <v>0.6088657059181304</v>
       </c>
       <c r="BE10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.6423141726307634</v>
+        <v>0.6593711059872589</v>
       </c>
       <c r="BH10" t="n">
         <v>0</v>
@@ -2036,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.546865947918668</v>
+        <v>0.5460637147158892</v>
       </c>
       <c r="BK10" t="n">
         <v>0</v>
@@ -2045,16 +2039,16 @@
         <v>2</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.686278705062335</v>
+        <v>0.574876843844859</v>
       </c>
       <c r="BN10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.6082106288519813</v>
+        <v>0.6098411183296492</v>
       </c>
       <c r="BQ10" t="n">
         <v>1</v>
@@ -2066,7 +2060,7 @@
       <c r="BT10" t="s"/>
       <c r="BU10" t="s"/>
       <c r="BV10" t="n">
-        <v>0.55163122062755</v>
+        <v>0.5521222369059081</v>
       </c>
       <c r="BW10" t="n">
         <v>0</v>
@@ -2078,7 +2072,7 @@
       <c r="BZ10" t="s"/>
       <c r="CA10" t="s"/>
       <c r="CB10" t="n">
-        <v>0.5953872093747877</v>
+        <v>0.6197632390407185</v>
       </c>
       <c r="CC10" t="n">
         <v>1</v>
@@ -2087,16 +2081,16 @@
         <v>1</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.5609861407345</v>
+        <v>0.5566309838300573</v>
       </c>
       <c r="CF10" t="n">
         <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.5272669002593663</v>
+        <v>0.5279573269285466</v>
       </c>
       <c r="CI10" t="n">
         <v>0</v>
@@ -2114,10 +2108,10 @@
         <v>1</v>
       </c>
       <c r="CR10" t="n">
+        <v>6</v>
+      </c>
+      <c r="CS10" t="n">
         <v>7</v>
-      </c>
-      <c r="CS10" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:97">
@@ -2125,10 +2119,10 @@
         <v>42</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9649131265197899</v>
+        <v>0.9649131265197897</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -2137,49 +2131,49 @@
         <v>0.9686196045011368</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9281110048959333</v>
+        <v>0.9281110048959332</v>
       </c>
       <c r="L11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>0.9848987309384056</v>
       </c>
       <c r="R11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T11" t="n">
-        <v>0.9001533936165648</v>
+        <v>0.9033635601912031</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -2188,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>0.9210223514693128</v>
+        <v>0.9162787794945156</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -2200,58 +2194,58 @@
         <v>0.9996584164657464</v>
       </c>
       <c r="AA11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.9976772513782973</v>
+        <v>0.9976772513782975</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.9798637100971996</v>
+        <v>0.9798637100971997</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AI11" t="n">
         <v>0.9390483087697569</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK11" t="n">
         <v>5</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.996599829435954</v>
+        <v>0.9987603053345987</v>
       </c>
       <c r="AM11" t="n">
         <v>3</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO11" t="n">
         <v>1</v>
       </c>
       <c r="AP11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.7756110017847345</v>
+        <v>0.7788065241145739</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
@@ -2260,28 +2254,28 @@
         <v>1</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.9982808010208364</v>
+        <v>0.9982808010208363</v>
       </c>
       <c r="AV11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW11" t="n">
         <v>9</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.9921593040474276</v>
+        <v>0.9921593040474274</v>
       </c>
       <c r="AY11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.9897433186107871</v>
+        <v>0.989743318610787</v>
       </c>
       <c r="BB11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC11" t="n">
         <v>1</v>
@@ -2290,82 +2284,82 @@
         <v>0.9890757908363207</v>
       </c>
       <c r="BE11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF11" t="n">
         <v>5</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.9921144366084508</v>
+        <v>0.9921144366084506</v>
       </c>
       <c r="BH11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI11" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0.9528276510291205</v>
+      </c>
+      <c r="BK11" t="n">
         <v>7</v>
       </c>
-      <c r="BJ11" t="n">
-        <v>0.9528276510291203</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>8</v>
-      </c>
       <c r="BL11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.8664059659943159</v>
+        <v>0.8519952541589986</v>
       </c>
       <c r="BN11" t="n">
         <v>2</v>
       </c>
       <c r="BO11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.9947351458379488</v>
+        <v>0.9947351458379489</v>
       </c>
       <c r="BQ11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BS11" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.9982808010208363</v>
+        <v>0.9982808010208364</v>
       </c>
       <c r="BW11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BY11" t="s"/>
       <c r="BZ11" t="s"/>
       <c r="CA11" t="s"/>
       <c r="CB11" t="n">
-        <v>0.9449111825230683</v>
+        <v>0.944911182523068</v>
       </c>
       <c r="CC11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CD11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="CE11" t="n">
         <v>0.9798637100971997</v>
       </c>
       <c r="CF11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CG11" t="n">
         <v>7</v>
@@ -2374,16 +2368,16 @@
         <v>0.9952932191938673</v>
       </c>
       <c r="CI11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CJ11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="CK11" t="n">
         <v>1</v>
       </c>
       <c r="CL11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CM11" t="n">
         <v>3</v>
@@ -2392,19 +2386,19 @@
         <v>1</v>
       </c>
       <c r="CO11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CP11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>0.9986827865206143</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>6</v>
+      </c>
+      <c r="CS11" t="n">
         <v>9</v>
-      </c>
-      <c r="CQ11" t="n">
-        <v>0.9994414254488158</v>
-      </c>
-      <c r="CR11" t="n">
-        <v>7</v>
-      </c>
-      <c r="CS11" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:97">
@@ -2412,16 +2406,16 @@
         <v>43</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7536415364504666</v>
+        <v>0.9143064479410167</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9915898564253326</v>
+        <v>0.9927530032210772</v>
       </c>
       <c r="F12" t="n">
         <v>6</v>
@@ -2430,16 +2424,16 @@
         <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9954993774748109</v>
+        <v>0.9970477734973381</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7500708122557452</v>
+        <v>0.7980970124630853</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2448,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7183614905312942</v>
+        <v>0.7060285155274458</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -2457,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9498144872942695</v>
+        <v>0.9479915589304417</v>
       </c>
       <c r="R12" t="n">
         <v>3</v>
@@ -2466,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9237435773061785</v>
+        <v>0.92728410736874</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -2475,7 +2469,7 @@
         <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>0.8681286417072162</v>
+        <v>0.871017694823379</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -2484,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.8850831838593318</v>
+        <v>0.8795115049145533</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -2493,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.9688834925491663</v>
+        <v>0.956126806877614</v>
       </c>
       <c r="AD12" t="n">
         <v>3</v>
@@ -2502,16 +2496,16 @@
         <v>1</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.8814064024788798</v>
+        <v>0.8886553424714694</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH12" t="n">
         <v>1</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.7413229854085062</v>
+        <v>0.75533614944244</v>
       </c>
       <c r="AJ12" t="n">
         <v>0</v>
@@ -2520,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.9303511857142258</v>
+        <v>0.9289849155789488</v>
       </c>
       <c r="AM12" t="n">
         <v>2</v>
@@ -2529,16 +2523,16 @@
         <v>2</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.7887188967852899</v>
+        <v>0.7742750294355218</v>
       </c>
       <c r="AP12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AQ12" t="n">
         <v>1</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.794568822875935</v>
+        <v>0.7972149708720502</v>
       </c>
       <c r="AS12" t="n">
         <v>0</v>
@@ -2547,16 +2541,16 @@
         <v>1</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.9414729597593049</v>
+        <v>0.9331823964393374</v>
       </c>
       <c r="AV12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
         <v>1</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.9689286990265993</v>
+        <v>0.9646464429414349</v>
       </c>
       <c r="AY12" t="n">
         <v>3</v>
@@ -2565,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.9094836740006356</v>
+        <v>0.9196527807506418</v>
       </c>
       <c r="BB12" t="n">
         <v>3</v>
@@ -2574,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.9896828992527736</v>
+        <v>0.9901483810251182</v>
       </c>
       <c r="BE12" t="n">
         <v>6</v>
@@ -2583,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.9403699216708217</v>
+        <v>0.9321388215668422</v>
       </c>
       <c r="BH12" t="n">
         <v>0</v>
@@ -2592,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.8407164762172771</v>
+        <v>0.832510271187801</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
@@ -2601,16 +2595,16 @@
         <v>1</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.8245516482103781</v>
+        <v>0.6434378737071882</v>
       </c>
       <c r="BN12" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
         <v>1</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.9364658010781191</v>
+        <v>0.9345150967684084</v>
       </c>
       <c r="BQ12" t="n">
         <v>3</v>
@@ -2619,16 +2613,16 @@
         <v>1</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.9114537821777136</v>
+        <v>0.915975791483731</v>
       </c>
       <c r="BT12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BU12" t="n">
         <v>1</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.9135792067652564</v>
+        <v>0.9119144548817925</v>
       </c>
       <c r="BW12" t="n">
         <v>3</v>
@@ -2640,7 +2634,7 @@
       <c r="BZ12" t="s"/>
       <c r="CA12" t="s"/>
       <c r="CB12" t="n">
-        <v>0.820285536329378</v>
+        <v>0.8119061829438579</v>
       </c>
       <c r="CC12" t="n">
         <v>0</v>
@@ -2649,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.8897969803231627</v>
+        <v>0.8881234810473495</v>
       </c>
       <c r="CF12" t="n">
         <v>0</v>
@@ -2658,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.7856842831509161</v>
+        <v>0.7846655486940807</v>
       </c>
       <c r="CI12" t="n">
         <v>3</v>
@@ -2667,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.8365265568575095</v>
+        <v>0.8258939646665169</v>
       </c>
       <c r="CL12" t="n">
         <v>3</v>
@@ -2676,16 +2670,16 @@
         <v>1</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.5992076640276588</v>
+        <v>0.5582597702646908</v>
       </c>
       <c r="CO12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CP12" t="n">
         <v>1</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.9362003933427679</v>
+        <v>0.940137416484349</v>
       </c>
       <c r="CR12" t="n">
         <v>3</v>
@@ -2699,16 +2693,16 @@
         <v>44</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7261933912328593</v>
+        <v>0.9167972198096072</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8437810041482922</v>
+        <v>0.8308942824469632</v>
       </c>
       <c r="F13" t="n">
         <v>3</v>
@@ -2717,16 +2711,16 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9765743329331318</v>
+        <v>0.9723686552350389</v>
       </c>
       <c r="I13" t="n">
         <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7601909114835386</v>
+        <v>0.7645556924843362</v>
       </c>
       <c r="L13" t="n">
         <v>3</v>
@@ -2735,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7561424510083319</v>
+        <v>0.7414402933762531</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -2744,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.962375937105883</v>
+        <v>0.9586553395193866</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2753,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8722458830517231</v>
+        <v>0.882564455398927</v>
       </c>
       <c r="U13" t="n">
         <v>3</v>
@@ -2762,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="W13" t="n">
-        <v>0.9456946801922943</v>
+        <v>0.9476844196174005</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -2771,7 +2765,7 @@
         <v>1</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.8037249736931104</v>
+        <v>0.800991706455367</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -2780,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.9720300111647667</v>
+        <v>0.9586231713514634</v>
       </c>
       <c r="AD13" t="n">
         <v>3</v>
@@ -2789,16 +2783,16 @@
         <v>1</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.9103626329841218</v>
+        <v>0.9163199609297565</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH13" t="n">
         <v>1</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.8168012743142326</v>
+        <v>0.8179198456947429</v>
       </c>
       <c r="AJ13" t="n">
         <v>3</v>
@@ -2807,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.9434555552433106</v>
+        <v>0.9423010028964746</v>
       </c>
       <c r="AM13" t="n">
         <v>2</v>
@@ -2816,7 +2810,7 @@
         <v>2</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.7319686229768304</v>
+        <v>0.7505408206856869</v>
       </c>
       <c r="AP13" t="n">
         <v>3</v>
@@ -2825,7 +2819,7 @@
         <v>1</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.7916880268199284</v>
+        <v>0.794756522726436</v>
       </c>
       <c r="AS13" t="n">
         <v>0</v>
@@ -2834,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.9586021435505181</v>
+        <v>0.9492334864240233</v>
       </c>
       <c r="AV13" t="n">
         <v>3</v>
@@ -2843,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.9679647897352209</v>
+        <v>0.9642889358899789</v>
       </c>
       <c r="AY13" t="n">
         <v>3</v>
@@ -2852,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.9098183679778834</v>
+        <v>0.9195645223630147</v>
       </c>
       <c r="BB13" t="n">
         <v>3</v>
@@ -2861,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.9679746737623977</v>
+        <v>0.9664967424925597</v>
       </c>
       <c r="BE13" t="n">
         <v>4</v>
@@ -2870,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.8654740815021873</v>
+        <v>0.8713860834289732</v>
       </c>
       <c r="BH13" t="n">
         <v>3</v>
@@ -2879,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.8718253436992707</v>
+        <v>0.8668135089399812</v>
       </c>
       <c r="BK13" t="n">
         <v>0</v>
@@ -2888,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.9803776400672264</v>
+        <v>0.9715302799854749</v>
       </c>
       <c r="BN13" t="n">
         <v>5</v>
@@ -2897,7 +2891,7 @@
         <v>3</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.9490328046440641</v>
+        <v>0.9475375546514683</v>
       </c>
       <c r="BQ13" t="n">
         <v>3</v>
@@ -2906,28 +2900,28 @@
         <v>1</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.9543856195314504</v>
+        <v>0.9558520915328876</v>
       </c>
       <c r="BT13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BU13" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.9363917926988438</v>
+        <v>0.9402316595969314</v>
       </c>
       <c r="BW13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BX13" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BY13" t="s"/>
       <c r="BZ13" t="s"/>
       <c r="CA13" t="s"/>
       <c r="CB13" t="n">
-        <v>0.827164789039542</v>
+        <v>0.844486221333522</v>
       </c>
       <c r="CC13" t="n">
         <v>3</v>
@@ -2936,16 +2930,16 @@
         <v>1</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.8616186163342623</v>
+        <v>0.8552190117481403</v>
       </c>
       <c r="CF13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG13" t="n">
         <v>1</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.8328145455549024</v>
+        <v>0.8317402662399221</v>
       </c>
       <c r="CI13" t="n">
         <v>3</v>
@@ -2954,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.8731903803681828</v>
+        <v>0.8641567802450151</v>
       </c>
       <c r="CL13" t="n">
         <v>3</v>
@@ -2963,19 +2957,19 @@
         <v>1</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.9456108576893003</v>
+        <v>0.9456108576893004</v>
       </c>
       <c r="CO13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CP13" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.7741782057388508</v>
+        <v>0.7623068274681912</v>
       </c>
       <c r="CR13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CS13" t="n">
         <v>1</v>
@@ -2986,25 +2980,25 @@
         <v>45</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6074771132508361</v>
+        <v>0.8163318046073719</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9551293353286232</v>
+        <v>0.946400025602774</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8312117172885318</v>
+        <v>0.8486971552109263</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
@@ -3013,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7644269956624399</v>
+        <v>0.7860336300143413</v>
       </c>
       <c r="L14" t="n">
         <v>2</v>
@@ -3022,7 +3016,7 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.77885129003252</v>
+        <v>0.7557359412875575</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -3031,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9577805813495853</v>
+        <v>0.9640682559762624</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -3040,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>0.8703515934388788</v>
+        <v>0.8805903541632828</v>
       </c>
       <c r="U14" t="n">
         <v>3</v>
@@ -3049,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="W14" t="n">
-        <v>0.9631303595145125</v>
+        <v>0.9735560775311459</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -3058,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.8414353086213163</v>
+        <v>0.8466174736348485</v>
       </c>
       <c r="AA14" t="n">
         <v>3</v>
@@ -3067,16 +3061,16 @@
         <v>1</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.9536673674166318</v>
+        <v>0.9465145016144068</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.9436233588045354</v>
+        <v>0.950639583786001</v>
       </c>
       <c r="AG14" t="n">
         <v>3</v>
@@ -3085,16 +3079,16 @@
         <v>1</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.8086315758327911</v>
+        <v>0.8113994786140029</v>
       </c>
       <c r="AJ14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AK14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.8700205541907705</v>
+        <v>0.8682010590373251</v>
       </c>
       <c r="AM14" t="n">
         <v>2</v>
@@ -3103,7 +3097,7 @@
         <v>2</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.9060920319241227</v>
+        <v>0.9041473694074079</v>
       </c>
       <c r="AP14" t="n">
         <v>3</v>
@@ -3112,25 +3106,25 @@
         <v>1</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.9879419105471532</v>
+        <v>0.9961020351287921</v>
       </c>
       <c r="AS14" t="n">
         <v>10</v>
       </c>
       <c r="AT14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.9327734957335349</v>
+        <v>0.9381321108600261</v>
       </c>
       <c r="AV14" t="n">
         <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.9809290695369205</v>
+        <v>0.9787413674893305</v>
       </c>
       <c r="AY14" t="n">
         <v>3</v>
@@ -3139,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.9589177738448081</v>
+        <v>0.9613844343457371</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
@@ -3148,7 +3142,7 @@
         <v>1</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.9701444204691282</v>
+        <v>0.9692071210151524</v>
       </c>
       <c r="BE14" t="n">
         <v>4</v>
@@ -3157,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.824610061172521</v>
+        <v>0.8334439429660913</v>
       </c>
       <c r="BH14" t="n">
         <v>3</v>
@@ -3166,7 +3160,7 @@
         <v>2</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.8834274309337384</v>
+        <v>0.8806051615110174</v>
       </c>
       <c r="BK14" t="n">
         <v>0</v>
@@ -3175,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.9955986802402941</v>
+        <v>0.9938524337192467</v>
       </c>
       <c r="BN14" t="n">
         <v>5</v>
@@ -3184,7 +3178,7 @@
         <v>3</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.962869220731202</v>
+        <v>0.9618141576490102</v>
       </c>
       <c r="BQ14" t="n">
         <v>3</v>
@@ -3193,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.9489549386688519</v>
+        <v>0.9329700220106169</v>
       </c>
       <c r="BT14" t="n">
         <v>2</v>
@@ -3202,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.9241746238233549</v>
+        <v>0.9124737209426487</v>
       </c>
       <c r="BW14" t="n">
         <v>2</v>
@@ -3214,7 +3208,7 @@
       <c r="BZ14" t="s"/>
       <c r="CA14" t="s"/>
       <c r="CB14" t="n">
-        <v>0.8275285879385945</v>
+        <v>0.81984633681695</v>
       </c>
       <c r="CC14" t="n">
         <v>0</v>
@@ -3223,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.8944766313110327</v>
+        <v>0.8756736926439993</v>
       </c>
       <c r="CF14" t="n">
         <v>0</v>
@@ -3232,16 +3226,16 @@
         <v>1</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.7739502691906611</v>
+        <v>0.7677172912403987</v>
       </c>
       <c r="CI14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CJ14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.8624025894169621</v>
+        <v>0.8643060061003672</v>
       </c>
       <c r="CL14" t="n">
         <v>0</v>
@@ -3250,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.9207637817215013</v>
+        <v>0.9080240155938466</v>
       </c>
       <c r="CO14" t="n">
         <v>2</v>
@@ -3259,7 +3253,7 @@
         <v>1</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.9144447246475845</v>
+        <v>0.9172778624160783</v>
       </c>
       <c r="CR14" t="n">
         <v>3</v>
@@ -3273,16 +3267,16 @@
         <v>46</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6350079147364477</v>
+        <v>0.7865066247807653</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8742813033993823</v>
+        <v>0.8691907994370839</v>
       </c>
       <c r="F15" t="n">
         <v>3</v>
@@ -3291,16 +3285,16 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8015693180823888</v>
+        <v>0.773328825150949</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6808538848644033</v>
+        <v>0.6940945832101165</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
@@ -3309,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7434276534236079</v>
+        <v>0.7077259956673615</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -3318,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.9472962262641191</v>
+        <v>0.9620174822011669</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -3327,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>0.7291936542555782</v>
+        <v>0.721003353054502</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -3336,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="W15" t="n">
-        <v>0.8518216883974287</v>
+        <v>0.8528936328403086</v>
       </c>
       <c r="X15" t="n">
         <v>5</v>
@@ -3345,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.8787980021504624</v>
+        <v>0.8784726091972791</v>
       </c>
       <c r="AA15" t="n">
         <v>3</v>
@@ -3354,16 +3348,16 @@
         <v>1</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.9644869756852532</v>
+        <v>0.9624324855343709</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.9504026179188184</v>
+        <v>0.9535975179166708</v>
       </c>
       <c r="AG15" t="n">
         <v>3</v>
@@ -3372,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.8532725451383971</v>
+        <v>0.8552459840931002</v>
       </c>
       <c r="AJ15" t="n">
         <v>5</v>
@@ -3381,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.8595253620321911</v>
+        <v>0.8566946575910029</v>
       </c>
       <c r="AM15" t="n">
         <v>2</v>
@@ -3390,7 +3384,7 @@
         <v>2</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.8783092525082543</v>
+        <v>0.8846081957796725</v>
       </c>
       <c r="AP15" t="n">
         <v>3</v>
@@ -3399,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.7210413068382961</v>
+        <v>0.7261838073352465</v>
       </c>
       <c r="AS15" t="n">
         <v>8</v>
@@ -3408,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.9566770954254484</v>
+        <v>0.9555618014823967</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
@@ -3417,16 +3411,16 @@
         <v>4</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.9504671817497876</v>
+        <v>0.9504640578099657</v>
       </c>
       <c r="AY15" t="n">
         <v>3</v>
       </c>
       <c r="AZ15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.952743473492468</v>
+        <v>0.9542415578230472</v>
       </c>
       <c r="BB15" t="n">
         <v>3</v>
@@ -3435,7 +3429,7 @@
         <v>4</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.9512227418415155</v>
+        <v>0.9462156762452451</v>
       </c>
       <c r="BE15" t="n">
         <v>3</v>
@@ -3444,7 +3438,7 @@
         <v>2</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.9470691155162156</v>
+        <v>0.9419912833506803</v>
       </c>
       <c r="BH15" t="n">
         <v>4</v>
@@ -3453,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.8769978645493769</v>
+        <v>0.8640571811981872</v>
       </c>
       <c r="BK15" t="n">
         <v>0</v>
@@ -3462,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.9749352438178273</v>
+        <v>0.9740433498404656</v>
       </c>
       <c r="BN15" t="n">
         <v>5</v>
@@ -3471,7 +3465,7 @@
         <v>2</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.9335290025168489</v>
+        <v>0.9331850319517327</v>
       </c>
       <c r="BQ15" t="n">
         <v>2</v>
@@ -3480,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.9439538889993357</v>
+        <v>0.9386097748740847</v>
       </c>
       <c r="BT15" t="n">
         <v>0</v>
@@ -3489,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.8766201438382016</v>
+        <v>0.8475259668925997</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -3501,7 +3495,7 @@
       <c r="BZ15" t="s"/>
       <c r="CA15" t="s"/>
       <c r="CB15" t="n">
-        <v>0.6919098628573039</v>
+        <v>0.6643866659409982</v>
       </c>
       <c r="CC15" t="n">
         <v>0</v>
@@ -3510,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.8884479391322924</v>
+        <v>0.8676547060333369</v>
       </c>
       <c r="CF15" t="n">
         <v>0</v>
@@ -3519,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.7291446763649893</v>
+        <v>0.7323697549865889</v>
       </c>
       <c r="CI15" t="n">
         <v>0</v>
@@ -3528,7 +3522,7 @@
         <v>1</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.8698824522893929</v>
+        <v>0.8755073596205749</v>
       </c>
       <c r="CL15" t="n">
         <v>0</v>
@@ -3537,16 +3531,16 @@
         <v>1</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.6430028580997917</v>
+        <v>0.6430522345517131</v>
       </c>
       <c r="CO15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CP15" t="n">
         <v>1</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.8375582063939927</v>
+        <v>0.8385606929219499</v>
       </c>
       <c r="CR15" t="n">
         <v>3</v>
@@ -3560,16 +3554,16 @@
         <v>47</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7293493798676547</v>
+        <v>0.8376901747451855</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8912348285950821</v>
+        <v>0.8908113117563724</v>
       </c>
       <c r="F16" t="n">
         <v>3</v>
@@ -3578,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7945333734146632</v>
+        <v>0.759843420808473</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -3587,7 +3581,7 @@
         <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6383427135815333</v>
+        <v>0.6240084472849099</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -3596,7 +3590,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7640461965748356</v>
+        <v>0.7728004770145607</v>
       </c>
       <c r="O16" t="n">
         <v>5</v>
@@ -3605,7 +3599,7 @@
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.9111000034221914</v>
+        <v>0.9095896729975383</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -3614,7 +3608,7 @@
         <v>6</v>
       </c>
       <c r="T16" t="n">
-        <v>0.714260851367591</v>
+        <v>0.7040990800007971</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -3623,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="W16" t="n">
-        <v>0.8685341395556184</v>
+        <v>0.8768705664718008</v>
       </c>
       <c r="X16" t="n">
         <v>5</v>
@@ -3632,7 +3626,7 @@
         <v>2</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.9095990423023612</v>
+        <v>0.9090582773765511</v>
       </c>
       <c r="AA16" t="n">
         <v>3</v>
@@ -3641,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.9629596406262333</v>
+        <v>0.9587566323026024</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -3650,7 +3644,7 @@
         <v>5</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.9623563782756177</v>
+        <v>0.9644114858530854</v>
       </c>
       <c r="AG16" t="n">
         <v>3</v>
@@ -3659,16 +3653,16 @@
         <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.8876724733369991</v>
+        <v>0.883422994595116</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.8250412118208751</v>
+        <v>0.834890266709037</v>
       </c>
       <c r="AM16" t="n">
         <v>2</v>
@@ -3677,7 +3671,7 @@
         <v>2</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.716988395308963</v>
+        <v>0.7361035926638858</v>
       </c>
       <c r="AP16" t="n">
         <v>6</v>
@@ -3686,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.7311464584831583</v>
+        <v>0.7340019667048598</v>
       </c>
       <c r="AS16" t="n">
         <v>6</v>
@@ -3695,7 +3689,7 @@
         <v>3</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.9670821903285916</v>
+        <v>0.9651633131500857</v>
       </c>
       <c r="AV16" t="n">
         <v>0</v>
@@ -3704,7 +3698,7 @@
         <v>4</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.9608935302562951</v>
+        <v>0.9606994755465488</v>
       </c>
       <c r="AY16" t="n">
         <v>3</v>
@@ -3713,7 +3707,7 @@
         <v>10</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.9673294504554446</v>
+        <v>0.9683555479119376</v>
       </c>
       <c r="BB16" t="n">
         <v>3</v>
@@ -3722,25 +3716,25 @@
         <v>4</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.9252907947342737</v>
+        <v>0.9272250927869633</v>
       </c>
       <c r="BE16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BF16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.961983584348756</v>
+        <v>0.9558731048118599</v>
       </c>
       <c r="BH16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BI16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.8667340919896518</v>
+        <v>0.8525441898557289</v>
       </c>
       <c r="BK16" t="n">
         <v>0</v>
@@ -3749,7 +3743,7 @@
         <v>1</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.9726801067688903</v>
+        <v>0.9697646826018024</v>
       </c>
       <c r="BN16" t="n">
         <v>5</v>
@@ -3758,7 +3752,7 @@
         <v>2</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.9349952680150528</v>
+        <v>0.9338889736443893</v>
       </c>
       <c r="BQ16" t="n">
         <v>2</v>
@@ -3767,7 +3761,7 @@
         <v>6</v>
       </c>
       <c r="BS16" t="n">
-        <v>0.9324608882097907</v>
+        <v>0.9268802899998311</v>
       </c>
       <c r="BT16" t="n">
         <v>0</v>
@@ -3776,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="BV16" t="n">
-        <v>0.8923190301115564</v>
+        <v>0.8673904964292485</v>
       </c>
       <c r="BW16" t="n">
         <v>0</v>
@@ -3785,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.9213260315431765</v>
+        <v>0.9153746316404233</v>
       </c>
       <c r="BZ16" t="n">
         <v>5</v>
@@ -3794,7 +3788,7 @@
         <v>1</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.7130314882639682</v>
+        <v>0.6947218436866553</v>
       </c>
       <c r="CC16" t="n">
         <v>0</v>
@@ -3803,7 +3797,7 @@
         <v>1</v>
       </c>
       <c r="CE16" t="n">
-        <v>0.8738146884878575</v>
+        <v>0.8523845942910739</v>
       </c>
       <c r="CF16" t="n">
         <v>0</v>
@@ -3812,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.7120506799752397</v>
+        <v>0.7090849938393338</v>
       </c>
       <c r="CI16" t="n">
         <v>0</v>
@@ -3821,7 +3815,7 @@
         <v>1</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.8673794566704341</v>
+        <v>0.8682340102459413</v>
       </c>
       <c r="CL16" t="n">
         <v>0</v>
@@ -3830,7 +3824,7 @@
         <v>1</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.7051116985195729</v>
+        <v>0.6775642501316824</v>
       </c>
       <c r="CO16" t="n">
         <v>0</v>
@@ -3839,7 +3833,7 @@
         <v>1</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.8672328941741121</v>
+        <v>0.8691357586841949</v>
       </c>
       <c r="CR16" t="n">
         <v>3</v>
@@ -3853,16 +3847,16 @@
         <v>48</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8077446153721586</v>
+        <v>0.8174110837329701</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7699399927395563</v>
+        <v>0.773408244395646</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -3871,7 +3865,7 @@
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7652255533706318</v>
+        <v>0.7217784916474679</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -3880,7 +3874,7 @@
         <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5430133041788003</v>
+        <v>0.5338393096040625</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -3889,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.6458042894851284</v>
+        <v>0.6272019835897389</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -3898,7 +3892,7 @@
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.9247787164613045</v>
+        <v>0.922690295012942</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -3907,7 +3901,7 @@
         <v>10</v>
       </c>
       <c r="T17" t="n">
-        <v>0.7272290159861736</v>
+        <v>0.7193253618541713</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -3916,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="W17" t="n">
-        <v>0.8655571113556632</v>
+        <v>0.8779052003594544</v>
       </c>
       <c r="X17" t="n">
         <v>5</v>
@@ -3925,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.9155694916305268</v>
+        <v>0.9163470335419621</v>
       </c>
       <c r="AA17" t="n">
         <v>3</v>
@@ -3934,16 +3928,16 @@
         <v>1</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.961843599210485</v>
+        <v>0.9614684934552418</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.944811895061449</v>
+        <v>0.9379900689450995</v>
       </c>
       <c r="AG17" t="n">
         <v>2</v>
@@ -3952,16 +3946,16 @@
         <v>2</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.9150237122594881</v>
+        <v>0.9147646512739375</v>
       </c>
       <c r="AJ17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.8276308803050126</v>
+        <v>0.8363196456231826</v>
       </c>
       <c r="AM17" t="n">
         <v>2</v>
@@ -3970,7 +3964,7 @@
         <v>2</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.7320782334964936</v>
+        <v>0.7248017495181277</v>
       </c>
       <c r="AP17" t="n">
         <v>0</v>
@@ -3979,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.7456598495205427</v>
+        <v>0.7485086143117486</v>
       </c>
       <c r="AS17" t="n">
         <v>6</v>
@@ -3988,7 +3982,7 @@
         <v>3</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.9738766016634075</v>
+        <v>0.9737315584923638</v>
       </c>
       <c r="AV17" t="n">
         <v>0</v>
@@ -3997,16 +3991,16 @@
         <v>5</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.9790526374072975</v>
+        <v>0.9789771781359985</v>
       </c>
       <c r="AY17" t="n">
         <v>6</v>
       </c>
       <c r="AZ17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.9738787959431824</v>
+        <v>0.9741867072370555</v>
       </c>
       <c r="BB17" t="n">
         <v>3</v>
@@ -4015,7 +4009,7 @@
         <v>4</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.9388473166527043</v>
+        <v>0.9397089684863943</v>
       </c>
       <c r="BE17" t="n">
         <v>2</v>
@@ -4024,16 +4018,16 @@
         <v>10</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.9582495873323926</v>
+        <v>0.9554880128311158</v>
       </c>
       <c r="BH17" t="n">
         <v>2</v>
       </c>
       <c r="BI17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.850284665098923</v>
+        <v>0.8363280999450422</v>
       </c>
       <c r="BK17" t="n">
         <v>0</v>
@@ -4042,7 +4036,7 @@
         <v>1</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.9789722297590659</v>
+        <v>0.9765082648880912</v>
       </c>
       <c r="BN17" t="n">
         <v>5</v>
@@ -4051,7 +4045,7 @@
         <v>2</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.9420549640202431</v>
+        <v>0.9406589179116286</v>
       </c>
       <c r="BQ17" t="n">
         <v>2</v>
@@ -4060,7 +4054,7 @@
         <v>6</v>
       </c>
       <c r="BS17" t="n">
-        <v>0.9324546569154333</v>
+        <v>0.9274221236911672</v>
       </c>
       <c r="BT17" t="n">
         <v>0</v>
@@ -4069,7 +4063,7 @@
         <v>1</v>
       </c>
       <c r="BV17" t="n">
-        <v>0.8967530924862017</v>
+        <v>0.876404253032794</v>
       </c>
       <c r="BW17" t="n">
         <v>0</v>
@@ -4078,7 +4072,7 @@
         <v>1</v>
       </c>
       <c r="BY17" t="n">
-        <v>0.6216776022614824</v>
+        <v>0.6199721391585652</v>
       </c>
       <c r="BZ17" t="n">
         <v>5</v>
@@ -4087,16 +4081,16 @@
         <v>1</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.734894133660483</v>
+        <v>0.754013181309952</v>
       </c>
       <c r="CC17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CD17" t="n">
         <v>1</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.8446393622762025</v>
+        <v>0.8268370544345672</v>
       </c>
       <c r="CF17" t="n">
         <v>0</v>
@@ -4105,7 +4099,7 @@
         <v>1</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.749961468035316</v>
+        <v>0.7359625752149934</v>
       </c>
       <c r="CI17" t="n">
         <v>0</v>
@@ -4114,7 +4108,7 @@
         <v>1</v>
       </c>
       <c r="CK17" t="n">
-        <v>0.8412019965267654</v>
+        <v>0.8472838513512467</v>
       </c>
       <c r="CL17" t="n">
         <v>4</v>
@@ -4123,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.5873751298186549</v>
+        <v>0.5728754733061128</v>
       </c>
       <c r="CO17" t="n">
         <v>0</v>
@@ -4132,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.84996016538196</v>
+        <v>0.8797711776955357</v>
       </c>
       <c r="CR17" t="n">
         <v>3</v>
@@ -4146,7 +4140,7 @@
         <v>49</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8411233953659075</v>
+        <v>0.8305658056359236</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -4155,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7899341620152157</v>
+        <v>0.7919356197618276</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -4164,7 +4158,7 @@
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7673150370025945</v>
+        <v>0.7327228979772314</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -4173,7 +4167,7 @@
         <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6543240755153239</v>
+        <v>0.6775558000742589</v>
       </c>
       <c r="L18" t="n">
         <v>5</v>
@@ -4182,7 +4176,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.6683085957556408</v>
+        <v>0.6524565789415312</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -4191,16 +4185,16 @@
         <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.931090956979845</v>
+        <v>0.9300194422041846</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T18" t="n">
-        <v>0.6772842360009658</v>
+        <v>0.6675124830715734</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -4209,7 +4203,7 @@
         <v>1</v>
       </c>
       <c r="W18" t="n">
-        <v>0.8842220213711178</v>
+        <v>0.8799372762566531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -4218,7 +4212,7 @@
         <v>6</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.9006732797564238</v>
+        <v>0.9035242477734081</v>
       </c>
       <c r="AA18" t="n">
         <v>3</v>
@@ -4227,7 +4221,7 @@
         <v>5</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.9611276437334516</v>
+        <v>0.9627224767965652</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -4236,16 +4230,16 @@
         <v>5</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.9244055586121892</v>
+        <v>0.9241408429414907</v>
       </c>
       <c r="AG18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.9403932822154196</v>
+        <v>0.9407333351105027</v>
       </c>
       <c r="AJ18" t="n">
         <v>6</v>
@@ -4254,7 +4248,7 @@
         <v>2</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.8284126470682399</v>
+        <v>0.8403630588691011</v>
       </c>
       <c r="AM18" t="n">
         <v>2</v>
@@ -4263,7 +4257,7 @@
         <v>2</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.66920855962403</v>
+        <v>0.6738975690937605</v>
       </c>
       <c r="AP18" t="n">
         <v>0</v>
@@ -4272,16 +4266,16 @@
         <v>1</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.745782295701323</v>
+        <v>0.7459185563660634</v>
       </c>
       <c r="AS18" t="n">
         <v>6</v>
       </c>
       <c r="AT18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.9779280466676405</v>
+        <v>0.9775735809834784</v>
       </c>
       <c r="AV18" t="n">
         <v>0</v>
@@ -4290,7 +4284,7 @@
         <v>5</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.9516971705204631</v>
+        <v>0.9513370817268013</v>
       </c>
       <c r="AY18" t="n">
         <v>6</v>
@@ -4299,7 +4293,7 @@
         <v>3</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.9757862339818136</v>
+        <v>0.9746233728819002</v>
       </c>
       <c r="BB18" t="n">
         <v>3</v>
@@ -4308,7 +4302,7 @@
         <v>4</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.9484097784867837</v>
+        <v>0.9487441703381458</v>
       </c>
       <c r="BE18" t="n">
         <v>2</v>
@@ -4317,16 +4311,16 @@
         <v>10</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.9159538613860155</v>
+        <v>0.9197127365163412</v>
       </c>
       <c r="BH18" t="n">
         <v>2</v>
       </c>
       <c r="BI18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.8302640463110255</v>
+        <v>0.8214170081157524</v>
       </c>
       <c r="BK18" t="n">
         <v>0</v>
@@ -4335,7 +4329,7 @@
         <v>1</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.956425543897556</v>
+        <v>0.95630937604294</v>
       </c>
       <c r="BN18" t="n">
         <v>5</v>
@@ -4344,7 +4338,7 @@
         <v>2</v>
       </c>
       <c r="BP18" t="n">
-        <v>0.9479569299406051</v>
+        <v>0.9465054510639064</v>
       </c>
       <c r="BQ18" t="n">
         <v>2</v>
@@ -4353,7 +4347,7 @@
         <v>6</v>
       </c>
       <c r="BS18" t="n">
-        <v>0.9134778611435815</v>
+        <v>0.9059020365557586</v>
       </c>
       <c r="BT18" t="n">
         <v>0</v>
@@ -4362,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="BV18" t="n">
-        <v>0.9127340204462369</v>
+        <v>0.8954897807767069</v>
       </c>
       <c r="BW18" t="n">
         <v>0</v>
@@ -4371,7 +4365,7 @@
         <v>1</v>
       </c>
       <c r="BY18" t="n">
-        <v>0.4563460850019304</v>
+        <v>0.4537247692138157</v>
       </c>
       <c r="BZ18" t="n">
         <v>3</v>
@@ -4380,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="CB18" t="n">
-        <v>0.9594034039377042</v>
+        <v>0.952810890896813</v>
       </c>
       <c r="CC18" t="n">
         <v>10</v>
@@ -4389,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="CE18" t="n">
-        <v>0.8066607917176835</v>
+        <v>0.7798433472179308</v>
       </c>
       <c r="CF18" t="n">
         <v>0</v>
@@ -4398,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="CH18" t="n">
-        <v>0.7648963516727002</v>
+        <v>0.7537050864590374</v>
       </c>
       <c r="CI18" t="n">
         <v>0</v>
@@ -4407,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="CK18" t="n">
-        <v>0.8418787037889335</v>
+        <v>0.8384841714786587</v>
       </c>
       <c r="CL18" t="n">
         <v>4</v>
@@ -4416,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.5793663064712574</v>
+        <v>0.5676489546592167</v>
       </c>
       <c r="CO18" t="n">
         <v>0</v>
@@ -4425,7 +4419,7 @@
         <v>1</v>
       </c>
       <c r="CQ18" t="n">
-        <v>0.8685645375769687</v>
+        <v>0.873735771696145</v>
       </c>
       <c r="CR18" t="n">
         <v>3</v>
@@ -4439,16 +4433,16 @@
         <v>50</v>
       </c>
       <c r="B19" t="n">
-        <v>0.852237117115636</v>
+        <v>0.8446923665254715</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7877256588828123</v>
+        <v>0.7903953015600126</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -4457,7 +4451,7 @@
         <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7582377974172135</v>
+        <v>0.7288148381492486</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -4466,16 +4460,16 @@
         <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6961970041926514</v>
+        <v>0.7018931945963316</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7179801275728398</v>
+        <v>0.7290310645390646</v>
       </c>
       <c r="O19" t="n">
         <v>5</v>
@@ -4484,7 +4478,7 @@
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.9301467600767387</v>
+        <v>0.9300128652581848</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -4493,7 +4487,7 @@
         <v>7</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7570140373127752</v>
+        <v>0.7668285282321066</v>
       </c>
       <c r="U19" t="n">
         <v>6</v>
@@ -4502,7 +4496,7 @@
         <v>1</v>
       </c>
       <c r="W19" t="n">
-        <v>0.8515454429950371</v>
+        <v>0.847600081368139</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -4511,16 +4505,16 @@
         <v>4</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.9069604459519844</v>
+        <v>0.9090596782536169</v>
       </c>
       <c r="AA19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.9615224462423724</v>
+        <v>0.9639631119602163</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -4529,7 +4523,7 @@
         <v>5</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.9268114467938617</v>
+        <v>0.9272271825339357</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
@@ -4538,16 +4532,16 @@
         <v>9</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.939854387311689</v>
+        <v>0.9255211769213457</v>
       </c>
       <c r="AJ19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.8331919062665596</v>
+        <v>0.844853304441</v>
       </c>
       <c r="AM19" t="n">
         <v>2</v>
@@ -4556,7 +4550,7 @@
         <v>2</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.6820221140938184</v>
+        <v>0.6824045949658261</v>
       </c>
       <c r="AP19" t="n">
         <v>0</v>
@@ -4565,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.8112430878924092</v>
+        <v>0.8126214934305603</v>
       </c>
       <c r="AS19" t="n">
         <v>5</v>
@@ -4574,7 +4568,7 @@
         <v>10</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.9796896759325495</v>
+        <v>0.9796442321177481</v>
       </c>
       <c r="AV19" t="n">
         <v>0</v>
@@ -4583,7 +4577,7 @@
         <v>5</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.9478283301034537</v>
+        <v>0.9444131948343533</v>
       </c>
       <c r="AY19" t="n">
         <v>4</v>
@@ -4592,16 +4586,16 @@
         <v>6</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.9625895494181219</v>
+        <v>0.9569172475167506</v>
       </c>
       <c r="BB19" t="n">
         <v>3</v>
       </c>
       <c r="BC19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.9547684337773554</v>
+        <v>0.9546699089654155</v>
       </c>
       <c r="BE19" t="n">
         <v>2</v>
@@ -4610,7 +4604,7 @@
         <v>10</v>
       </c>
       <c r="BG19" t="n">
-        <v>0.8843329202517518</v>
+        <v>0.8933354672414551</v>
       </c>
       <c r="BH19" t="n">
         <v>2</v>
@@ -4619,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.8113211220486851</v>
+        <v>0.7959163716572505</v>
       </c>
       <c r="BK19" t="n">
         <v>0</v>
@@ -4628,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.9466367671434348</v>
+        <v>0.9476919604354712</v>
       </c>
       <c r="BN19" t="n">
         <v>3</v>
@@ -4637,7 +4631,7 @@
         <v>9</v>
       </c>
       <c r="BP19" t="n">
-        <v>0.946362832501036</v>
+        <v>0.9466947453642975</v>
       </c>
       <c r="BQ19" t="n">
         <v>2</v>
@@ -4646,7 +4640,7 @@
         <v>7</v>
       </c>
       <c r="BS19" t="n">
-        <v>0.8905940549868526</v>
+        <v>0.8834890901852367</v>
       </c>
       <c r="BT19" t="n">
         <v>0</v>
@@ -4655,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="BV19" t="n">
-        <v>0.9144527106675278</v>
+        <v>0.8975101116301131</v>
       </c>
       <c r="BW19" t="n">
         <v>0</v>
@@ -4664,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="BY19" t="n">
-        <v>0.3713391630508212</v>
+        <v>0.3736672910985011</v>
       </c>
       <c r="BZ19" t="n">
         <v>3</v>
@@ -4673,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="CB19" t="n">
-        <v>0.9270901743610434</v>
+        <v>0.9347075577818265</v>
       </c>
       <c r="CC19" t="n">
         <v>10</v>
@@ -4682,7 +4676,7 @@
         <v>1</v>
       </c>
       <c r="CE19" t="n">
-        <v>0.8089756780140138</v>
+        <v>0.7829292822828522</v>
       </c>
       <c r="CF19" t="n">
         <v>0</v>
@@ -4691,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="CH19" t="n">
-        <v>0.7672852098771349</v>
+        <v>0.7560845542978165</v>
       </c>
       <c r="CI19" t="n">
         <v>0</v>
@@ -4700,7 +4694,7 @@
         <v>1</v>
       </c>
       <c r="CK19" t="n">
-        <v>0.8534352994870869</v>
+        <v>0.8512306097562122</v>
       </c>
       <c r="CL19" t="n">
         <v>4</v>
@@ -4709,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="CN19" t="n">
-        <v>0.6018897709376967</v>
+        <v>0.5850926456213579</v>
       </c>
       <c r="CO19" t="n">
         <v>0</v>
@@ -4718,13 +4712,13 @@
         <v>1</v>
       </c>
       <c r="CQ19" t="n">
-        <v>0.8748465296986641</v>
+        <v>0.8799141270656803</v>
       </c>
       <c r="CR19" t="n">
         <v>3</v>
       </c>
       <c r="CS19" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:97">
@@ -4732,7 +4726,7 @@
         <v>51</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8391134582250834</v>
+        <v>0.8307674356799365</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -4741,7 +4735,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7891229311217928</v>
+        <v>0.7923874435584412</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -4750,7 +4744,7 @@
         <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7330622559936993</v>
+        <v>0.729590076917174</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -4759,7 +4753,7 @@
         <v>10</v>
       </c>
       <c r="K20" t="n">
-        <v>0.742826245270317</v>
+        <v>0.7407251936280768</v>
       </c>
       <c r="L20" t="n">
         <v>5</v>
@@ -4768,16 +4762,16 @@
         <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.8167234542915399</v>
+        <v>0.8134812370330929</v>
       </c>
       <c r="O20" t="n">
         <v>10</v>
       </c>
       <c r="P20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.9319121148573954</v>
+        <v>0.9308556534242409</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -4786,7 +4780,7 @@
         <v>7</v>
       </c>
       <c r="T20" t="n">
-        <v>0.8413000162171176</v>
+        <v>0.8503825906786515</v>
       </c>
       <c r="U20" t="n">
         <v>6</v>
@@ -4795,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="W20" t="n">
-        <v>0.8553911048311685</v>
+        <v>0.8516663616112622</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -4804,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.909993951901106</v>
+        <v>0.9105991242540359</v>
       </c>
       <c r="AA20" t="n">
         <v>2</v>
@@ -4813,7 +4807,7 @@
         <v>9</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.9620392958920083</v>
+        <v>0.9643385829015321</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -4822,7 +4816,7 @@
         <v>5</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.9314481383691504</v>
+        <v>0.9326161840468601</v>
       </c>
       <c r="AG20" t="n">
         <v>0</v>
@@ -4831,16 +4825,16 @@
         <v>10</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.9294527565946655</v>
+        <v>0.9295899037336282</v>
       </c>
       <c r="AJ20" t="n">
         <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.8407173774890895</v>
+        <v>0.8526779080094599</v>
       </c>
       <c r="AM20" t="n">
         <v>2</v>
@@ -4849,7 +4843,7 @@
         <v>2</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.6751948334734933</v>
+        <v>0.6836283480115806</v>
       </c>
       <c r="AP20" t="n">
         <v>0</v>
@@ -4858,25 +4852,25 @@
         <v>1</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.8636692700222542</v>
+        <v>0.8643955219626828</v>
       </c>
       <c r="AS20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.9786998910146313</v>
+        <v>0.9786426141998242</v>
       </c>
       <c r="AV20" t="n">
         <v>0</v>
       </c>
       <c r="AW20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.9532087685640557</v>
+        <v>0.951151250992639</v>
       </c>
       <c r="AY20" t="n">
         <v>4</v>
@@ -4885,16 +4879,16 @@
         <v>6</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.9628656729319344</v>
+        <v>0.9572263952793736</v>
       </c>
       <c r="BB20" t="n">
         <v>3</v>
       </c>
       <c r="BC20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD20" t="n">
-        <v>0.9596542816580196</v>
+        <v>0.9596677310413063</v>
       </c>
       <c r="BE20" t="n">
         <v>2</v>
@@ -4903,16 +4897,16 @@
         <v>10</v>
       </c>
       <c r="BG20" t="n">
-        <v>0.8669160807008818</v>
+        <v>0.8860783069549644</v>
       </c>
       <c r="BH20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.818250939796014</v>
+        <v>0.8014720176078821</v>
       </c>
       <c r="BK20" t="n">
         <v>0</v>
@@ -4921,16 +4915,16 @@
         <v>1</v>
       </c>
       <c r="BM20" t="n">
-        <v>0.9515267284770902</v>
+        <v>0.9528423393384743</v>
       </c>
       <c r="BN20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BO20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BP20" t="n">
-        <v>0.9494948849211384</v>
+        <v>0.9492520657397749</v>
       </c>
       <c r="BQ20" t="n">
         <v>2</v>
@@ -4939,7 +4933,7 @@
         <v>7</v>
       </c>
       <c r="BS20" t="n">
-        <v>0.794598738741199</v>
+        <v>0.7914012051423833</v>
       </c>
       <c r="BT20" t="n">
         <v>0</v>
@@ -4948,7 +4942,7 @@
         <v>10</v>
       </c>
       <c r="BV20" t="n">
-        <v>0.9157098658508139</v>
+        <v>0.9027009410758436</v>
       </c>
       <c r="BW20" t="n">
         <v>0</v>
@@ -4957,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="BY20" t="n">
-        <v>0.2832512640416588</v>
+        <v>0.286492746667414</v>
       </c>
       <c r="BZ20" t="n">
         <v>3</v>
@@ -4966,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="CB20" t="n">
-        <v>0.9277446470358632</v>
+        <v>0.9367761441314421</v>
       </c>
       <c r="CC20" t="n">
         <v>10</v>
@@ -4975,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="CE20" t="n">
-        <v>0.785463648910591</v>
+        <v>0.7529587711874786</v>
       </c>
       <c r="CF20" t="n">
         <v>0</v>
@@ -4984,7 +4978,7 @@
         <v>1</v>
       </c>
       <c r="CH20" t="n">
-        <v>0.7910983116763401</v>
+        <v>0.7628242004125544</v>
       </c>
       <c r="CI20" t="n">
         <v>0</v>
@@ -4993,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="CK20" t="n">
-        <v>0.8542629185839513</v>
+        <v>0.8491605265656487</v>
       </c>
       <c r="CL20" t="n">
         <v>4</v>
@@ -5002,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="CN20" t="n">
-        <v>0.6193792270406394</v>
+        <v>0.6032199900080489</v>
       </c>
       <c r="CO20" t="n">
         <v>0</v>
@@ -5011,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="CQ20" t="n">
-        <v>0.9046578836166747</v>
+        <v>0.9072880704095402</v>
       </c>
       <c r="CR20" t="n">
         <v>3</v>
@@ -5025,7 +5019,7 @@
         <v>52</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8244546711623145</v>
+        <v>0.8125299523955358</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -5034,7 +5028,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7897437594398633</v>
+        <v>0.7929461370397158</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -5043,7 +5037,7 @@
         <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6643721962410124</v>
+        <v>0.6546988069444686</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -5052,16 +5046,16 @@
         <v>8</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7001920851932089</v>
+        <v>0.6834550062701593</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8948071701425634</v>
+        <v>0.8942826370599744</v>
       </c>
       <c r="O21" t="n">
         <v>9</v>
@@ -5070,7 +5064,7 @@
         <v>8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.9274975563789499</v>
+        <v>0.9300090027695428</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -5079,7 +5073,7 @@
         <v>7</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8717448148014945</v>
+        <v>0.8794293175805633</v>
       </c>
       <c r="U21" t="n">
         <v>6</v>
@@ -5088,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="W21" t="n">
-        <v>0.8589913550084061</v>
+        <v>0.8554308103202918</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -5097,7 +5091,7 @@
         <v>4</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.9206472343621502</v>
+        <v>0.921015793661572</v>
       </c>
       <c r="AA21" t="n">
         <v>2</v>
@@ -5106,7 +5100,7 @@
         <v>10</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.9591108385448233</v>
+        <v>0.9640228037298118</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -5115,7 +5109,7 @@
         <v>5</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.936303376289379</v>
+        <v>0.9371804384077361</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -5124,16 +5118,16 @@
         <v>10</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.9217165840014805</v>
+        <v>0.9247025206344777</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.8449696304254044</v>
+        <v>0.856483704957914</v>
       </c>
       <c r="AM21" t="n">
         <v>2</v>
@@ -5142,16 +5136,16 @@
         <v>2</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.6874256750563007</v>
+        <v>0.6917998342475907</v>
       </c>
       <c r="AP21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AQ21" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.9071724302613243</v>
+        <v>0.9068347789857617</v>
       </c>
       <c r="AS21" t="n">
         <v>0</v>
@@ -5160,7 +5154,7 @@
         <v>1</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.9785942655539328</v>
+        <v>0.9775429963391512</v>
       </c>
       <c r="AV21" t="n">
         <v>0</v>
@@ -5169,7 +5163,7 @@
         <v>7</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.9394305683647605</v>
+        <v>0.9373279317017373</v>
       </c>
       <c r="AY21" t="n">
         <v>4</v>
@@ -5178,16 +5172,16 @@
         <v>10</v>
       </c>
       <c r="BA21" t="n">
-        <v>0.951435822052811</v>
+        <v>0.9515969763494796</v>
       </c>
       <c r="BB21" t="n">
         <v>3</v>
       </c>
       <c r="BC21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD21" t="n">
-        <v>0.9434137300671082</v>
+        <v>0.9449859855957089</v>
       </c>
       <c r="BE21" t="n">
         <v>3</v>
@@ -5196,16 +5190,16 @@
         <v>10</v>
       </c>
       <c r="BG21" t="n">
-        <v>0.8668113138558158</v>
+        <v>0.8798367649307324</v>
       </c>
       <c r="BH21" t="n">
         <v>1</v>
       </c>
       <c r="BI21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.8180043790834209</v>
+        <v>0.799694024483704</v>
       </c>
       <c r="BK21" t="n">
         <v>0</v>
@@ -5214,7 +5208,7 @@
         <v>1</v>
       </c>
       <c r="BM21" t="n">
-        <v>0.9598536307098551</v>
+        <v>0.9593406167397556</v>
       </c>
       <c r="BN21" t="n">
         <v>5</v>
@@ -5223,7 +5217,7 @@
         <v>9</v>
       </c>
       <c r="BP21" t="n">
-        <v>0.952110057608594</v>
+        <v>0.9531741428137221</v>
       </c>
       <c r="BQ21" t="n">
         <v>2</v>
@@ -5232,7 +5226,7 @@
         <v>7</v>
       </c>
       <c r="BS21" t="n">
-        <v>0.7763724503464688</v>
+        <v>0.770267997149034</v>
       </c>
       <c r="BT21" t="n">
         <v>0</v>
@@ -5241,7 +5235,7 @@
         <v>10</v>
       </c>
       <c r="BV21" t="n">
-        <v>0.9156971546449608</v>
+        <v>0.9037560296515798</v>
       </c>
       <c r="BW21" t="n">
         <v>0</v>
@@ -5250,7 +5244,7 @@
         <v>1</v>
       </c>
       <c r="BY21" t="n">
-        <v>0.2480088136800449</v>
+        <v>0.2625752131576914</v>
       </c>
       <c r="BZ21" t="n">
         <v>1</v>
@@ -5259,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="CB21" t="n">
-        <v>0.9227611246361075</v>
+        <v>0.9244242426899428</v>
       </c>
       <c r="CC21" t="n">
         <v>5</v>
@@ -5268,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="CE21" t="n">
-        <v>0.7792133759982809</v>
+        <v>0.746982098882391</v>
       </c>
       <c r="CF21" t="n">
         <v>0</v>
@@ -5277,16 +5271,16 @@
         <v>1</v>
       </c>
       <c r="CH21" t="n">
-        <v>0.8070231343827795</v>
+        <v>0.7667694098646686</v>
       </c>
       <c r="CI21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CJ21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CK21" t="n">
-        <v>0.8608998264578257</v>
+        <v>0.8558130837213276</v>
       </c>
       <c r="CL21" t="n">
         <v>4</v>
@@ -5295,7 +5289,7 @@
         <v>1</v>
       </c>
       <c r="CN21" t="n">
-        <v>0.6358206468108755</v>
+        <v>0.6242840823824728</v>
       </c>
       <c r="CO21" t="n">
         <v>0</v>
@@ -5304,10 +5298,10 @@
         <v>1</v>
       </c>
       <c r="CQ21" t="n">
-        <v>0.9184905742595956</v>
+        <v>0.9211918707516398</v>
       </c>
       <c r="CR21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CS21" t="n">
         <v>10</v>
@@ -5318,16 +5312,16 @@
         <v>53</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8290448067128736</v>
+        <v>0.8235879903723283</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7902097310223962</v>
+        <v>0.7933114872888967</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -5336,7 +5330,7 @@
         <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>0.685260033710408</v>
+        <v>0.6846787808942526</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -5345,7 +5339,7 @@
         <v>10</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7073331738411522</v>
+        <v>0.7014367517830546</v>
       </c>
       <c r="L22" t="n">
         <v>5</v>
@@ -5354,16 +5348,16 @@
         <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9269658318641777</v>
+        <v>0.9277951209025632</v>
       </c>
       <c r="O22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.9276322961308774</v>
+        <v>0.929338709374726</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -5372,7 +5366,7 @@
         <v>7</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7766246132660304</v>
+        <v>0.777959938989318</v>
       </c>
       <c r="U22" t="n">
         <v>6</v>
@@ -5381,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>0.8414312463147396</v>
+        <v>0.8354622778851533</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -5390,7 +5384,7 @@
         <v>1</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.9214497284812714</v>
+        <v>0.9218441279641548</v>
       </c>
       <c r="AA22" t="n">
         <v>2</v>
@@ -5399,16 +5393,16 @@
         <v>9</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.9497340448843943</v>
+        <v>0.9548279657610542</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.9374488293571233</v>
+        <v>0.9370629609279773</v>
       </c>
       <c r="AG22" t="n">
         <v>0</v>
@@ -5417,16 +5411,16 @@
         <v>10</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.9234554437484745</v>
+        <v>0.9265246755922719</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.8466304107199982</v>
+        <v>0.857474094542176</v>
       </c>
       <c r="AM22" t="n">
         <v>2</v>
@@ -5435,7 +5429,7 @@
         <v>2</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.6971468966052613</v>
+        <v>0.6922191179990554</v>
       </c>
       <c r="AP22" t="n">
         <v>0</v>
@@ -5444,7 +5438,7 @@
         <v>9</v>
       </c>
       <c r="AR22" t="n">
-        <v>0.9457328009870509</v>
+        <v>0.9454340088919453</v>
       </c>
       <c r="AS22" t="n">
         <v>0</v>
@@ -5453,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>0.979418075330598</v>
+        <v>0.978640948686334</v>
       </c>
       <c r="AV22" t="n">
         <v>0</v>
@@ -5462,7 +5456,7 @@
         <v>7</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.9470473811538884</v>
+        <v>0.9453211198978977</v>
       </c>
       <c r="AY22" t="n">
         <v>4</v>
@@ -5471,16 +5465,16 @@
         <v>10</v>
       </c>
       <c r="BA22" t="n">
-        <v>0.870595295177608</v>
+        <v>0.8803215494855556</v>
       </c>
       <c r="BB22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC22" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BD22" t="n">
-        <v>0.9477076227668333</v>
+        <v>0.950156455848189</v>
       </c>
       <c r="BE22" t="n">
         <v>3</v>
@@ -5489,16 +5483,16 @@
         <v>10</v>
       </c>
       <c r="BG22" t="n">
-        <v>0.8682512819122284</v>
+        <v>0.8809100147231614</v>
       </c>
       <c r="BH22" t="n">
         <v>1</v>
       </c>
       <c r="BI22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0.7600368403415002</v>
+        <v>0.7403514862983973</v>
       </c>
       <c r="BK22" t="n">
         <v>0</v>
@@ -5507,7 +5501,7 @@
         <v>1</v>
       </c>
       <c r="BM22" t="n">
-        <v>0.9527441769591303</v>
+        <v>0.9539296065764905</v>
       </c>
       <c r="BN22" t="n">
         <v>5</v>
@@ -5516,7 +5510,7 @@
         <v>10</v>
       </c>
       <c r="BP22" t="n">
-        <v>0.9551829750916265</v>
+        <v>0.9565618246990883</v>
       </c>
       <c r="BQ22" t="n">
         <v>2</v>
@@ -5525,16 +5519,16 @@
         <v>7</v>
       </c>
       <c r="BS22" t="n">
-        <v>0.7435461433987915</v>
+        <v>0.7618686715423046</v>
       </c>
       <c r="BT22" t="n">
         <v>0</v>
       </c>
       <c r="BU22" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BV22" t="n">
-        <v>0.9114849920830721</v>
+        <v>0.9024883847110757</v>
       </c>
       <c r="BW22" t="n">
         <v>0</v>
@@ -5543,16 +5537,16 @@
         <v>1</v>
       </c>
       <c r="BY22" t="n">
-        <v>0.2359767894881199</v>
+        <v>0.2453056800480545</v>
       </c>
       <c r="BZ22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CB22" t="n">
-        <v>0.9282065578510822</v>
+        <v>0.9297929806167273</v>
       </c>
       <c r="CC22" t="n">
         <v>5</v>
@@ -5561,25 +5555,25 @@
         <v>1</v>
       </c>
       <c r="CE22" t="n">
-        <v>0.7251950035750878</v>
+        <v>0.7084898667781588</v>
       </c>
       <c r="CF22" t="n">
         <v>0</v>
       </c>
       <c r="CG22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CH22" t="n">
-        <v>0.8069661867615208</v>
+        <v>0.7716645738085467</v>
       </c>
       <c r="CI22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CJ22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CK22" t="n">
-        <v>0.8562305970544815</v>
+        <v>0.8546182817484466</v>
       </c>
       <c r="CL22" t="n">
         <v>4</v>
@@ -5588,16 +5582,16 @@
         <v>1</v>
       </c>
       <c r="CN22" t="n">
-        <v>0.6240333471202286</v>
+        <v>0.6168135439746043</v>
       </c>
       <c r="CO22" t="n">
         <v>0</v>
       </c>
       <c r="CP22" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="CQ22" t="n">
-        <v>0.9400164312143525</v>
+        <v>0.9421957651363968</v>
       </c>
       <c r="CR22" t="n">
         <v>6</v>
@@ -5611,7 +5605,7 @@
         <v>54</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8327963365887947</v>
+        <v>0.8304827682413517</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -5620,7 +5614,7 @@
         <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7856158783765228</v>
+        <v>0.7894992373134935</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -5629,7 +5623,7 @@
         <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6961168369685919</v>
+        <v>0.6959054336550773</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -5638,25 +5632,25 @@
         <v>10</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7068576374992273</v>
+        <v>0.6945504415153035</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.8604340631907218</v>
+        <v>0.8728929008420012</v>
       </c>
       <c r="O23" t="n">
         <v>7</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.9277470399008242</v>
+        <v>0.929742925754356</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -5665,7 +5659,7 @@
         <v>7</v>
       </c>
       <c r="T23" t="n">
-        <v>0.8017190358773026</v>
+        <v>0.8032339692255025</v>
       </c>
       <c r="U23" t="n">
         <v>6</v>
@@ -5674,16 +5668,16 @@
         <v>1</v>
       </c>
       <c r="W23" t="n">
-        <v>0.7249874072201498</v>
+        <v>0.735501093219101</v>
       </c>
       <c r="X23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.9244481229949386</v>
+        <v>0.9255535073802524</v>
       </c>
       <c r="AA23" t="n">
         <v>2</v>
@@ -5692,7 +5686,7 @@
         <v>9</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.871646950591328</v>
+        <v>0.8808489033980015</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -5701,7 +5695,7 @@
         <v>7</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.9345684979386735</v>
+        <v>0.9372339547738932</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
@@ -5710,16 +5704,16 @@
         <v>10</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.9247884113483255</v>
+        <v>0.9280362966809602</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.8299662980800859</v>
+        <v>0.845307784895835</v>
       </c>
       <c r="AM23" t="n">
         <v>2</v>
@@ -5728,7 +5722,7 @@
         <v>2</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.723360230653937</v>
+        <v>0.7198604799642238</v>
       </c>
       <c r="AP23" t="n">
         <v>0</v>
@@ -5737,7 +5731,7 @@
         <v>10</v>
       </c>
       <c r="AR23" t="n">
-        <v>0.9589043424650129</v>
+        <v>0.9586682986864442</v>
       </c>
       <c r="AS23" t="n">
         <v>0</v>
@@ -5746,7 +5740,7 @@
         <v>1</v>
       </c>
       <c r="AU23" t="n">
-        <v>0.9790058558486857</v>
+        <v>0.9787198871176243</v>
       </c>
       <c r="AV23" t="n">
         <v>0</v>
@@ -5755,25 +5749,25 @@
         <v>7</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.9419703545641055</v>
+        <v>0.9391435193633599</v>
       </c>
       <c r="AY23" t="n">
         <v>4</v>
       </c>
       <c r="AZ23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>0.868381988679811</v>
+        <v>0.8788763075312335</v>
       </c>
       <c r="BB23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC23" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BD23" t="n">
-        <v>0.9516880110757571</v>
+        <v>0.9542666623042427</v>
       </c>
       <c r="BE23" t="n">
         <v>3</v>
@@ -5782,16 +5776,16 @@
         <v>10</v>
       </c>
       <c r="BG23" t="n">
-        <v>0.8687318810444721</v>
+        <v>0.8802231275016548</v>
       </c>
       <c r="BH23" t="n">
         <v>1</v>
       </c>
       <c r="BI23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ23" t="n">
-        <v>0.7219443619202875</v>
+        <v>0.6919013043247428</v>
       </c>
       <c r="BK23" t="n">
         <v>0</v>
@@ -5800,7 +5794,7 @@
         <v>3</v>
       </c>
       <c r="BM23" t="n">
-        <v>0.9548877633749596</v>
+        <v>0.9555417030107842</v>
       </c>
       <c r="BN23" t="n">
         <v>6</v>
@@ -5809,7 +5803,7 @@
         <v>10</v>
       </c>
       <c r="BP23" t="n">
-        <v>0.9475594667932</v>
+        <v>0.9468269890097839</v>
       </c>
       <c r="BQ23" t="n">
         <v>2</v>
@@ -5818,7 +5812,7 @@
         <v>7</v>
       </c>
       <c r="BS23" t="n">
-        <v>0.7476769647666716</v>
+        <v>0.7440177445702543</v>
       </c>
       <c r="BT23" t="n">
         <v>0</v>
@@ -5827,7 +5821,7 @@
         <v>8</v>
       </c>
       <c r="BV23" t="n">
-        <v>0.9080925363224945</v>
+        <v>0.9008332904812837</v>
       </c>
       <c r="BW23" t="n">
         <v>0</v>
@@ -5836,16 +5830,16 @@
         <v>1</v>
       </c>
       <c r="BY23" t="n">
-        <v>0.2347905034216653</v>
+        <v>0.2415109803743502</v>
       </c>
       <c r="BZ23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CB23" t="n">
-        <v>0.9176296948857456</v>
+        <v>0.9195499020068625</v>
       </c>
       <c r="CC23" t="n">
         <v>5</v>
@@ -5854,7 +5848,7 @@
         <v>1</v>
       </c>
       <c r="CE23" t="n">
-        <v>0.7255871803105388</v>
+        <v>0.6989938405700343</v>
       </c>
       <c r="CF23" t="n">
         <v>0</v>
@@ -5863,16 +5857,16 @@
         <v>1</v>
       </c>
       <c r="CH23" t="n">
-        <v>0.7906219321442881</v>
+        <v>0.7676288107932839</v>
       </c>
       <c r="CI23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CJ23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CK23" t="n">
-        <v>0.8387962378724488</v>
+        <v>0.8374229925008945</v>
       </c>
       <c r="CL23" t="n">
         <v>4</v>
@@ -5881,7 +5875,7 @@
         <v>1</v>
       </c>
       <c r="CN23" t="n">
-        <v>0.6223158465126525</v>
+        <v>0.6146685403949433</v>
       </c>
       <c r="CO23" t="n">
         <v>0</v>
@@ -5890,7 +5884,7 @@
         <v>1</v>
       </c>
       <c r="CQ23" t="n">
-        <v>0.9530415276444144</v>
+        <v>0.954602838765917</v>
       </c>
       <c r="CR23" t="n">
         <v>6</v>
@@ -5904,7 +5898,7 @@
         <v>55</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8305776232625328</v>
+        <v>0.8274502234783935</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -5913,7 +5907,7 @@
         <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7741628407532284</v>
+        <v>0.7794885216140122</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -5922,7 +5916,7 @@
         <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7038474265523386</v>
+        <v>0.7048877815079867</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -5931,16 +5925,16 @@
         <v>10</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7170838324274773</v>
+        <v>0.7056868074058988</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.8577682292780656</v>
+        <v>0.8696399506913071</v>
       </c>
       <c r="O24" t="n">
         <v>7</v>
@@ -5949,7 +5943,7 @@
         <v>2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.9241504719353354</v>
+        <v>0.9279141946631779</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -5958,7 +5952,7 @@
         <v>7</v>
       </c>
       <c r="T24" t="n">
-        <v>0.6825000947172282</v>
+        <v>0.6805898647354358</v>
       </c>
       <c r="U24" t="n">
         <v>6</v>
@@ -5967,16 +5961,16 @@
         <v>1</v>
       </c>
       <c r="W24" t="n">
-        <v>0.7278911070130301</v>
+        <v>0.7357433230037731</v>
       </c>
       <c r="X24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.9226375797912968</v>
+        <v>0.9237885906082238</v>
       </c>
       <c r="AA24" t="n">
         <v>3</v>
@@ -5985,7 +5979,7 @@
         <v>10</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.8538833643255085</v>
+        <v>0.8643186514792575</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -5994,7 +5988,7 @@
         <v>10</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.9345642525934478</v>
+        <v>0.9361150526691516</v>
       </c>
       <c r="AG24" t="n">
         <v>0</v>
@@ -6003,16 +5997,16 @@
         <v>10</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.9252050754795862</v>
+        <v>0.928671178448888</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.8235748770769438</v>
+        <v>0.8355513723883048</v>
       </c>
       <c r="AM24" t="n">
         <v>2</v>
@@ -6021,7 +6015,7 @@
         <v>2</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.7301195194269101</v>
+        <v>0.7260516329502579</v>
       </c>
       <c r="AP24" t="n">
         <v>0</v>
@@ -6030,7 +6024,7 @@
         <v>10</v>
       </c>
       <c r="AR24" t="n">
-        <v>0.9572144689467922</v>
+        <v>0.9570919473490277</v>
       </c>
       <c r="AS24" t="n">
         <v>0</v>
@@ -6039,34 +6033,34 @@
         <v>1</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.9730243085264919</v>
+        <v>0.9732352778421089</v>
       </c>
       <c r="AV24" t="n">
         <v>0</v>
       </c>
       <c r="AW24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.9447531410412445</v>
+        <v>0.9421027580556246</v>
       </c>
       <c r="AY24" t="n">
         <v>4</v>
       </c>
       <c r="AZ24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
-        <v>0.8645991403865825</v>
+        <v>0.8765112222518189</v>
       </c>
       <c r="BB24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC24" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BD24" t="n">
-        <v>0.9474928890361879</v>
+        <v>0.9481726417924623</v>
       </c>
       <c r="BE24" t="n">
         <v>3</v>
@@ -6075,16 +6069,16 @@
         <v>10</v>
       </c>
       <c r="BG24" t="n">
-        <v>0.8672755892800749</v>
+        <v>0.8755702838336584</v>
       </c>
       <c r="BH24" t="n">
         <v>1</v>
       </c>
       <c r="BI24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ24" t="n">
-        <v>0.672221849758877</v>
+        <v>0.6441282069044486</v>
       </c>
       <c r="BK24" t="n">
         <v>0</v>
@@ -6093,16 +6087,16 @@
         <v>4</v>
       </c>
       <c r="BM24" t="n">
-        <v>0.9584504791852669</v>
+        <v>0.9589622053401371</v>
       </c>
       <c r="BN24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BO24" t="n">
         <v>10</v>
       </c>
       <c r="BP24" t="n">
-        <v>0.9475666738534557</v>
+        <v>0.9464368197680214</v>
       </c>
       <c r="BQ24" t="n">
         <v>2</v>
@@ -6111,7 +6105,7 @@
         <v>7</v>
       </c>
       <c r="BS24" t="n">
-        <v>0.7492043582126352</v>
+        <v>0.7473675372629398</v>
       </c>
       <c r="BT24" t="n">
         <v>0</v>
@@ -6120,7 +6114,7 @@
         <v>8</v>
       </c>
       <c r="BV24" t="n">
-        <v>0.9054961323465772</v>
+        <v>0.8997003045941789</v>
       </c>
       <c r="BW24" t="n">
         <v>0</v>
@@ -6129,16 +6123,16 @@
         <v>1</v>
       </c>
       <c r="BY24" t="n">
-        <v>0.2360450178620865</v>
+        <v>0.240603301013766</v>
       </c>
       <c r="BZ24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA24" t="n">
         <v>1</v>
       </c>
       <c r="CB24" t="n">
-        <v>0.9115771002758803</v>
+        <v>0.9130595748673228</v>
       </c>
       <c r="CC24" t="n">
         <v>5</v>
@@ -6147,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="CE24" t="n">
-        <v>0.7258223449886266</v>
+        <v>0.6991696298330186</v>
       </c>
       <c r="CF24" t="n">
         <v>0</v>
@@ -6156,16 +6150,16 @@
         <v>1</v>
       </c>
       <c r="CH24" t="n">
-        <v>0.7677349587647926</v>
+        <v>0.7619247680664383</v>
       </c>
       <c r="CI24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CJ24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CK24" t="n">
-        <v>0.8212597602627609</v>
+        <v>0.8175908717520525</v>
       </c>
       <c r="CL24" t="n">
         <v>4</v>
@@ -6174,7 +6168,7 @@
         <v>1</v>
       </c>
       <c r="CN24" t="n">
-        <v>0.6212829522606538</v>
+        <v>0.6144667705709156</v>
       </c>
       <c r="CO24" t="n">
         <v>0</v>
@@ -6183,7 +6177,7 @@
         <v>1</v>
       </c>
       <c r="CQ24" t="n">
-        <v>0.9593423052880562</v>
+        <v>0.960894723900777</v>
       </c>
       <c r="CR24" t="n">
         <v>7</v>
@@ -6197,7 +6191,7 @@
         <v>56</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8191212501180675</v>
+        <v>0.8143322412092285</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -6206,7 +6200,7 @@
         <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>0.77729769869127</v>
+        <v>0.78252097544787</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -6215,7 +6209,7 @@
         <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6950356178721181</v>
+        <v>0.6919975187646195</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -6224,25 +6218,25 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7180448211397342</v>
+        <v>0.6895024001393354</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.8361595903447713</v>
+        <v>0.8465907115552036</v>
       </c>
       <c r="O25" t="n">
         <v>7</v>
       </c>
       <c r="P25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.9234898521965523</v>
+        <v>0.927854988714666</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -6251,25 +6245,25 @@
         <v>7</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7015873805708014</v>
+        <v>0.7014437497676289</v>
       </c>
       <c r="U25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W25" t="n">
-        <v>0.7273044671122784</v>
+        <v>0.7350220559344888</v>
       </c>
       <c r="X25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.9254404165743559</v>
+        <v>0.9272581977419989</v>
       </c>
       <c r="AA25" t="n">
         <v>3</v>
@@ -6278,7 +6272,7 @@
         <v>10</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.8537329424915678</v>
+        <v>0.866378075988422</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -6287,7 +6281,7 @@
         <v>10</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.9307580431953189</v>
+        <v>0.9345653327043671</v>
       </c>
       <c r="AG25" t="n">
         <v>0</v>
@@ -6296,16 +6290,16 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.9248095920416947</v>
+        <v>0.9270801590932252</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.8089962642245152</v>
+        <v>0.8238501265646102</v>
       </c>
       <c r="AM25" t="n">
         <v>2</v>
@@ -6314,7 +6308,7 @@
         <v>2</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.7365175145981242</v>
+        <v>0.7325687273497022</v>
       </c>
       <c r="AP25" t="n">
         <v>0</v>
@@ -6323,7 +6317,7 @@
         <v>10</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.9579935149791787</v>
+        <v>0.9578597890977381</v>
       </c>
       <c r="AS25" t="n">
         <v>0</v>
@@ -6332,7 +6326,7 @@
         <v>1</v>
       </c>
       <c r="AU25" t="n">
-        <v>0.9716804477504156</v>
+        <v>0.9717617126907102</v>
       </c>
       <c r="AV25" t="n">
         <v>0</v>
@@ -6341,7 +6335,7 @@
         <v>8</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.9356461873586818</v>
+        <v>0.9349751453786704</v>
       </c>
       <c r="AY25" t="n">
         <v>4</v>
@@ -6350,16 +6344,16 @@
         <v>8</v>
       </c>
       <c r="BA25" t="n">
-        <v>0.805073328447988</v>
+        <v>0.8185423423564462</v>
       </c>
       <c r="BB25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC25" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BD25" t="n">
-        <v>0.9453835892871237</v>
+        <v>0.9449841816864279</v>
       </c>
       <c r="BE25" t="n">
         <v>3</v>
@@ -6368,16 +6362,16 @@
         <v>10</v>
       </c>
       <c r="BG25" t="n">
-        <v>0.8658452139887839</v>
+        <v>0.8733962662349477</v>
       </c>
       <c r="BH25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI25" t="n">
         <v>2</v>
       </c>
       <c r="BJ25" t="n">
-        <v>0.6805940790367415</v>
+        <v>0.6801691295984803</v>
       </c>
       <c r="BK25" t="n">
         <v>8</v>
@@ -6386,7 +6380,7 @@
         <v>10</v>
       </c>
       <c r="BM25" t="n">
-        <v>0.9599814472757335</v>
+        <v>0.9608844381051811</v>
       </c>
       <c r="BN25" t="n">
         <v>6</v>
@@ -6395,7 +6389,7 @@
         <v>10</v>
       </c>
       <c r="BP25" t="n">
-        <v>0.8998626474789132</v>
+        <v>0.8991608778640873</v>
       </c>
       <c r="BQ25" t="n">
         <v>6</v>
@@ -6404,7 +6398,7 @@
         <v>2</v>
       </c>
       <c r="BS25" t="n">
-        <v>0.7496258129717637</v>
+        <v>0.7483607803920154</v>
       </c>
       <c r="BT25" t="n">
         <v>0</v>
@@ -6413,7 +6407,7 @@
         <v>8</v>
       </c>
       <c r="BV25" t="n">
-        <v>0.8786921371112715</v>
+        <v>0.8781608732941683</v>
       </c>
       <c r="BW25" t="n">
         <v>0</v>
@@ -6422,16 +6416,16 @@
         <v>1</v>
       </c>
       <c r="BY25" t="n">
-        <v>0.2386733064383507</v>
+        <v>0.2426976276068304</v>
       </c>
       <c r="BZ25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA25" t="n">
         <v>1</v>
       </c>
       <c r="CB25" t="n">
-        <v>0.8898349179645154</v>
+        <v>0.8933325920074715</v>
       </c>
       <c r="CC25" t="n">
         <v>5</v>
@@ -6440,25 +6434,25 @@
         <v>1</v>
       </c>
       <c r="CE25" t="n">
-        <v>0.698855014232295</v>
+        <v>0.6798103262956926</v>
       </c>
       <c r="CF25" t="n">
         <v>0</v>
       </c>
       <c r="CG25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CH25" t="n">
-        <v>0.7384347149485717</v>
+        <v>0.725826981284714</v>
       </c>
       <c r="CI25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CJ25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CK25" t="n">
-        <v>0.8155967520076566</v>
+        <v>0.8106272595869014</v>
       </c>
       <c r="CL25" t="n">
         <v>4</v>
@@ -6467,7 +6461,7 @@
         <v>1</v>
       </c>
       <c r="CN25" t="n">
-        <v>0.6206885919331965</v>
+        <v>0.6139081429642618</v>
       </c>
       <c r="CO25" t="n">
         <v>0</v>
@@ -6476,7 +6470,7 @@
         <v>1</v>
       </c>
       <c r="CQ25" t="n">
-        <v>0.9190247661597025</v>
+        <v>0.9182998515845993</v>
       </c>
       <c r="CR25" t="n">
         <v>6</v>
@@ -6490,7 +6484,7 @@
         <v>57</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8006307522683304</v>
+        <v>0.7940926771868712</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -6499,7 +6493,7 @@
         <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7813035723629937</v>
+        <v>0.7861662503350029</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6508,7 +6502,7 @@
         <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6897839602513968</v>
+        <v>0.6839582557375339</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -6517,16 +6511,16 @@
         <v>10</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7100415085640597</v>
+        <v>0.6728283604553328</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.8456145353812514</v>
+        <v>0.8554857807583205</v>
       </c>
       <c r="O26" t="n">
         <v>7</v>
@@ -6535,34 +6529,34 @@
         <v>2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.9168895992851953</v>
+        <v>0.9227155781941569</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T26" t="n">
-        <v>0.6631938335140195</v>
+        <v>0.6552878119047093</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V26" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="W26" t="n">
-        <v>0.7265174546408812</v>
+        <v>0.7287968186047183</v>
       </c>
       <c r="X26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.9243656509977513</v>
+        <v>0.9253334412778608</v>
       </c>
       <c r="AA26" t="n">
         <v>3</v>
@@ -6571,7 +6565,7 @@
         <v>10</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.8516636558402734</v>
+        <v>0.8669555338897577</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -6580,7 +6574,7 @@
         <v>10</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.9040258999455304</v>
+        <v>0.906370589317525</v>
       </c>
       <c r="AG26" t="n">
         <v>1</v>
@@ -6589,16 +6583,16 @@
         <v>10</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.9206467116520279</v>
+        <v>0.9194199488273965</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.7859337183361612</v>
+        <v>0.8047845624085826</v>
       </c>
       <c r="AM26" t="n">
         <v>2</v>
@@ -6607,7 +6601,7 @@
         <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>0.7409162463505808</v>
+        <v>0.7375405591772662</v>
       </c>
       <c r="AP26" t="n">
         <v>0</v>
@@ -6616,7 +6610,7 @@
         <v>10</v>
       </c>
       <c r="AR26" t="n">
-        <v>0.9601065243178991</v>
+        <v>0.9599814864355224</v>
       </c>
       <c r="AS26" t="n">
         <v>0</v>
@@ -6625,7 +6619,7 @@
         <v>1</v>
       </c>
       <c r="AU26" t="n">
-        <v>0.9704879062106019</v>
+        <v>0.9712661384302615</v>
       </c>
       <c r="AV26" t="n">
         <v>0</v>
@@ -6634,7 +6628,7 @@
         <v>8</v>
       </c>
       <c r="AX26" t="n">
-        <v>0.9352286912451203</v>
+        <v>0.9334594406055288</v>
       </c>
       <c r="AY26" t="n">
         <v>4</v>
@@ -6643,16 +6637,16 @@
         <v>8</v>
       </c>
       <c r="BA26" t="n">
-        <v>0.805815990090529</v>
+        <v>0.8182783749269944</v>
       </c>
       <c r="BB26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC26" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BD26" t="n">
-        <v>0.9300212040781566</v>
+        <v>0.9283339972555812</v>
       </c>
       <c r="BE26" t="n">
         <v>3</v>
@@ -6661,25 +6655,25 @@
         <v>10</v>
       </c>
       <c r="BG26" t="n">
-        <v>0.867421758712058</v>
+        <v>0.8748863212127747</v>
       </c>
       <c r="BH26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI26" t="n">
         <v>2</v>
       </c>
       <c r="BJ26" t="n">
-        <v>0.6298813513064518</v>
+        <v>0.6274296852856568</v>
       </c>
       <c r="BK26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL26" t="n">
         <v>10</v>
       </c>
       <c r="BM26" t="n">
-        <v>0.960423384860838</v>
+        <v>0.9608597976124987</v>
       </c>
       <c r="BN26" t="n">
         <v>6</v>
@@ -6688,25 +6682,25 @@
         <v>10</v>
       </c>
       <c r="BP26" t="n">
-        <v>0.8572488396409166</v>
+        <v>0.8569328478049842</v>
       </c>
       <c r="BQ26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BR26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BS26" t="n">
-        <v>0.7147140221603048</v>
+        <v>0.71445545288918</v>
       </c>
       <c r="BT26" t="n">
         <v>0</v>
       </c>
       <c r="BU26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BV26" t="n">
-        <v>0.8738872739216424</v>
+        <v>0.874829002934537</v>
       </c>
       <c r="BW26" t="n">
         <v>0</v>
@@ -6715,16 +6709,16 @@
         <v>1</v>
       </c>
       <c r="BY26" t="n">
-        <v>0.239591603666447</v>
+        <v>0.2432620110570939</v>
       </c>
       <c r="BZ26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CB26" t="n">
-        <v>0.8818262813469249</v>
+        <v>0.8864140610549484</v>
       </c>
       <c r="CC26" t="n">
         <v>5</v>
@@ -6733,25 +6727,25 @@
         <v>1</v>
       </c>
       <c r="CE26" t="n">
-        <v>0.7011624534170583</v>
+        <v>0.6804093113123467</v>
       </c>
       <c r="CF26" t="n">
         <v>0</v>
       </c>
       <c r="CG26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CH26" t="n">
-        <v>0.7326305989807441</v>
+        <v>0.6918729842136158</v>
       </c>
       <c r="CI26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CJ26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CK26" t="n">
-        <v>0.8184553080939716</v>
+        <v>0.8135625445300334</v>
       </c>
       <c r="CL26" t="n">
         <v>4</v>
@@ -6760,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="CN26" t="n">
-        <v>0.6192050635778931</v>
+        <v>0.6129960391958408</v>
       </c>
       <c r="CO26" t="n">
         <v>0</v>
@@ -6769,10 +6763,10 @@
         <v>1</v>
       </c>
       <c r="CQ26" t="n">
-        <v>0.8676996596663915</v>
+        <v>0.8636309032873553</v>
       </c>
       <c r="CR26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CS26" t="n">
         <v>10</v>
@@ -6783,7 +6777,7 @@
         <v>58</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7319682528026021</v>
+        <v>0.7242849081719293</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -6792,7 +6786,7 @@
         <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>0.760357938737067</v>
+        <v>0.7663631921973177</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -6801,7 +6795,7 @@
         <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6877237485820431</v>
+        <v>0.685264304572784</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -6810,52 +6804,52 @@
         <v>10</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7056067149738511</v>
+        <v>0.6720522338459449</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.8030428473777235</v>
+        <v>0.8097280336823878</v>
       </c>
       <c r="O27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.9156819500643002</v>
+        <v>0.9196444507931369</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T27" t="n">
-        <v>0.6466703304705751</v>
+        <v>0.6141270190908431</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V27" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="W27" t="n">
-        <v>0.6847477183463225</v>
+        <v>0.6919533637624686</v>
       </c>
       <c r="X27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.9256874346895758</v>
+        <v>0.9266106156034359</v>
       </c>
       <c r="AA27" t="n">
         <v>3</v>
@@ -6864,52 +6858,52 @@
         <v>10</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.8511546035583993</v>
+        <v>0.8675562617370478</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
         <v>10</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.8952895213154509</v>
+        <v>0.8985771855113047</v>
       </c>
       <c r="AG27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH27" t="n">
         <v>10</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.899037719326012</v>
+        <v>0.8990380518778065</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.7413264245046963</v>
+        <v>0.7624829884609756</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN27" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AO27" t="n">
-        <v>0.7316675683846642</v>
+        <v>0.7312953105341902</v>
       </c>
       <c r="AP27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27" t="n">
         <v>10</v>
       </c>
       <c r="AR27" t="n">
-        <v>0.953899867874905</v>
+        <v>0.9537764061778904</v>
       </c>
       <c r="AS27" t="n">
         <v>0</v>
@@ -6918,7 +6912,7 @@
         <v>1</v>
       </c>
       <c r="AU27" t="n">
-        <v>0.9705637448162635</v>
+        <v>0.9712411900779719</v>
       </c>
       <c r="AV27" t="n">
         <v>0</v>
@@ -6927,7 +6921,7 @@
         <v>8</v>
       </c>
       <c r="AX27" t="n">
-        <v>0.9288428941045498</v>
+        <v>0.9252197984438649</v>
       </c>
       <c r="AY27" t="n">
         <v>4</v>
@@ -6936,34 +6930,34 @@
         <v>8</v>
       </c>
       <c r="BA27" t="n">
-        <v>0.8064707409246006</v>
+        <v>0.8155292546929968</v>
       </c>
       <c r="BB27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BD27" t="n">
-        <v>0.8975151683000158</v>
+        <v>0.8961565008637955</v>
       </c>
       <c r="BE27" t="n">
         <v>3</v>
       </c>
       <c r="BF27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BG27" t="n">
-        <v>0.8698844295169564</v>
+        <v>0.8769505060946811</v>
       </c>
       <c r="BH27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI27" t="n">
         <v>2</v>
       </c>
       <c r="BJ27" t="n">
-        <v>0.6338264658098414</v>
+        <v>0.6328243185075039</v>
       </c>
       <c r="BK27" t="n">
         <v>2</v>
@@ -6972,7 +6966,7 @@
         <v>10</v>
       </c>
       <c r="BM27" t="n">
-        <v>0.9587657083896541</v>
+        <v>0.9598003338342249</v>
       </c>
       <c r="BN27" t="n">
         <v>6</v>
@@ -6981,7 +6975,7 @@
         <v>10</v>
       </c>
       <c r="BP27" t="n">
-        <v>0.8270807709220708</v>
+        <v>0.8273576644775221</v>
       </c>
       <c r="BQ27" t="n">
         <v>4</v>
@@ -6990,16 +6984,16 @@
         <v>5</v>
       </c>
       <c r="BS27" t="n">
-        <v>0.7146689295493899</v>
+        <v>0.7137590121707779</v>
       </c>
       <c r="BT27" t="n">
         <v>0</v>
       </c>
       <c r="BU27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BV27" t="n">
-        <v>0.8666651448334459</v>
+        <v>0.8692616629496317</v>
       </c>
       <c r="BW27" t="n">
         <v>0</v>
@@ -7008,43 +7002,43 @@
         <v>1</v>
       </c>
       <c r="BY27" t="n">
-        <v>0.2392559870010439</v>
+        <v>0.2441311282346799</v>
       </c>
       <c r="BZ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CB27" t="n">
-        <v>0.8365100413181514</v>
+        <v>0.8377882721842883</v>
       </c>
       <c r="CC27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="CD27" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="CE27" t="n">
-        <v>0.7060021482595373</v>
+        <v>0.6829716436301194</v>
       </c>
       <c r="CF27" t="n">
         <v>0</v>
       </c>
       <c r="CG27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CH27" t="n">
-        <v>0.7269042829223333</v>
+        <v>0.6686921417862748</v>
       </c>
       <c r="CI27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CJ27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CK27" t="n">
-        <v>0.7815670711088271</v>
+        <v>0.7960177432910701</v>
       </c>
       <c r="CL27" t="n">
         <v>0</v>
@@ -7053,7 +7047,7 @@
         <v>5</v>
       </c>
       <c r="CN27" t="n">
-        <v>0.6242968246138186</v>
+        <v>0.6193804592548321</v>
       </c>
       <c r="CO27" t="n">
         <v>0</v>
@@ -7062,10 +7056,10 @@
         <v>1</v>
       </c>
       <c r="CQ27" t="n">
-        <v>0.8700873338287139</v>
+        <v>0.8668845976848637</v>
       </c>
       <c r="CR27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CS27" t="n">
         <v>10</v>
@@ -7076,7 +7070,7 @@
         <v>59</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7095311290811231</v>
+        <v>0.6991121938450248</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -7085,7 +7079,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7614229841702095</v>
+        <v>0.7674389856837261</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -7094,7 +7088,7 @@
         <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6680133415546697</v>
+        <v>0.6581209405337678</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -7103,52 +7097,52 @@
         <v>10</v>
       </c>
       <c r="K28" t="n">
-        <v>0.6890795951417656</v>
+        <v>0.6640826113349256</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.7683871808312069</v>
+        <v>0.7840389425911487</v>
       </c>
       <c r="O28" t="n">
         <v>6</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.9156871470701144</v>
+        <v>0.9195518419399518</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T28" t="n">
-        <v>0.6252336736225841</v>
+        <v>0.6454842848745346</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V28" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="W28" t="n">
-        <v>0.641737303284253</v>
+        <v>0.651635656456684</v>
       </c>
       <c r="X28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.9147542991485723</v>
+        <v>0.9141453959077237</v>
       </c>
       <c r="AA28" t="n">
         <v>3</v>
@@ -7157,7 +7151,7 @@
         <v>10</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.8392115218709332</v>
+        <v>0.8486424894650162</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -7166,7 +7160,7 @@
         <v>10</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.8854366857498486</v>
+        <v>0.8896381760976767</v>
       </c>
       <c r="AG28" t="n">
         <v>0</v>
@@ -7175,16 +7169,16 @@
         <v>10</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.8639621702851614</v>
+        <v>0.8730818684305124</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL28" t="n">
-        <v>0.7418893393634464</v>
+        <v>0.7659017878388741</v>
       </c>
       <c r="AM28" t="n">
         <v>2</v>
@@ -7193,7 +7187,7 @@
         <v>2</v>
       </c>
       <c r="AO28" t="n">
-        <v>0.7063946906072398</v>
+        <v>0.7069541383644737</v>
       </c>
       <c r="AP28" t="n">
         <v>3</v>
@@ -7202,7 +7196,7 @@
         <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>0.9556809772226685</v>
+        <v>0.9555850151143019</v>
       </c>
       <c r="AS28" t="n">
         <v>0</v>
@@ -7211,7 +7205,7 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>0.9703543881824812</v>
+        <v>0.9712251797302286</v>
       </c>
       <c r="AV28" t="n">
         <v>0</v>
@@ -7220,79 +7214,79 @@
         <v>8</v>
       </c>
       <c r="AX28" t="n">
-        <v>0.9254293426685191</v>
+        <v>0.9220660318511363</v>
       </c>
       <c r="AY28" t="n">
         <v>4</v>
       </c>
       <c r="AZ28" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0.7906744712142257</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0.8536161708943469</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>0.8783140340776124</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>0.6307949904577521</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>10</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>0.96057105419772</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>6</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>10</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>0.7864805815582706</v>
+      </c>
+      <c r="BQ28" t="n">
+        <v>6</v>
+      </c>
+      <c r="BR28" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS28" t="n">
+        <v>0.7141075007429656</v>
+      </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
         <v>8</v>
       </c>
-      <c r="BA28" t="n">
-        <v>0.7783813703236588</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>0.8515353388538798</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF28" t="n">
-        <v>10</v>
-      </c>
-      <c r="BG28" t="n">
-        <v>0.8712674727373677</v>
-      </c>
-      <c r="BH28" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI28" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ28" t="n">
-        <v>0.6317132468785127</v>
-      </c>
-      <c r="BK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL28" t="n">
-        <v>10</v>
-      </c>
-      <c r="BM28" t="n">
-        <v>0.9594059118974284</v>
-      </c>
-      <c r="BN28" t="n">
-        <v>6</v>
-      </c>
-      <c r="BO28" t="n">
-        <v>10</v>
-      </c>
-      <c r="BP28" t="n">
-        <v>0.7854547498205967</v>
-      </c>
-      <c r="BQ28" t="n">
-        <v>6</v>
-      </c>
-      <c r="BR28" t="n">
-        <v>2</v>
-      </c>
-      <c r="BS28" t="n">
-        <v>0.714917489902984</v>
-      </c>
-      <c r="BT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU28" t="n">
-        <v>10</v>
-      </c>
       <c r="BV28" t="n">
-        <v>0.8685757713550916</v>
+        <v>0.8711648909232583</v>
       </c>
       <c r="BW28" t="n">
         <v>0</v>
@@ -7301,16 +7295,16 @@
         <v>1</v>
       </c>
       <c r="BY28" t="n">
-        <v>0.2401887724631741</v>
+        <v>0.2424815766123448</v>
       </c>
       <c r="BZ28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA28" t="n">
         <v>1</v>
       </c>
       <c r="CB28" t="n">
-        <v>0.839708570832817</v>
+        <v>0.8431977849447447</v>
       </c>
       <c r="CC28" t="n">
         <v>4</v>
@@ -7319,16 +7313,16 @@
         <v>10</v>
       </c>
       <c r="CE28" t="n">
-        <v>0.7078206310715623</v>
+        <v>0.6851596366155795</v>
       </c>
       <c r="CF28" t="n">
         <v>0</v>
       </c>
       <c r="CG28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CH28" t="n">
-        <v>0.7230050845189929</v>
+        <v>0.6491387887686534</v>
       </c>
       <c r="CI28" t="n">
         <v>0</v>
@@ -7337,7 +7331,7 @@
         <v>1</v>
       </c>
       <c r="CK28" t="n">
-        <v>0.7722611906172563</v>
+        <v>0.7908254953568128</v>
       </c>
       <c r="CL28" t="n">
         <v>0</v>
@@ -7346,7 +7340,7 @@
         <v>5</v>
       </c>
       <c r="CN28" t="n">
-        <v>0.6266575883764178</v>
+        <v>0.6198949395915583</v>
       </c>
       <c r="CO28" t="n">
         <v>0</v>
@@ -7355,13 +7349,13 @@
         <v>1</v>
       </c>
       <c r="CQ28" t="n">
-        <v>0.8741659170277551</v>
+        <v>0.8697873345064514</v>
       </c>
       <c r="CR28" t="n">
+        <v>7</v>
+      </c>
+      <c r="CS28" t="n">
         <v>4</v>
-      </c>
-      <c r="CS28" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:97">
@@ -7369,7 +7363,7 @@
         <v>60</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7144082756976501</v>
+        <v>0.7026818095746714</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -7378,7 +7372,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7628900273505748</v>
+        <v>0.7719482241018015</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -7387,7 +7381,7 @@
         <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6679931414903529</v>
+        <v>0.6569182811029723</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -7396,196 +7390,196 @@
         <v>10</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6865747432667793</v>
+        <v>0.6640789599524393</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N29" t="n">
-        <v>0.7658895575622141</v>
+        <v>0.7795453241456671</v>
       </c>
       <c r="O29" t="n">
         <v>6</v>
       </c>
       <c r="P29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.909270053787165</v>
+        <v>0.9139753120602739</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
+        <v>7</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.6175058125514753</v>
+      </c>
+      <c r="U29" t="n">
+        <v>6</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.5844573045159075</v>
+      </c>
+      <c r="X29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.905033209170955</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.8379782350875488</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.8781332762224247</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0.8660997371779614</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0.7638307601118699</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0.7151922008483708</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0.9552363275758494</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0.9641814354896865</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="n">
         <v>8</v>
       </c>
-      <c r="T29" t="n">
-        <v>0.6225760799350151</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>9</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0.5775087236912759</v>
-      </c>
-      <c r="X29" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0.9055528189312392</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0.8237980605406861</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0.8751494352983169</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0.8562531508274935</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>5</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>0.7416319238276398</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>0.7135981387868898</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>0.9553266247237134</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>0.9643386652788737</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>9</v>
-      </c>
       <c r="AX29" t="n">
-        <v>0.9256305890235622</v>
+        <v>0.9223248716759893</v>
       </c>
       <c r="AY29" t="n">
         <v>4</v>
       </c>
       <c r="AZ29" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0.7912349590744336</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0.8107539172521662</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>0.880224935066675</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>0.6329793016830875</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>10</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>0.9596949941894433</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>6</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>10</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>0.7471806717707883</v>
+      </c>
+      <c r="BQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR29" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS29" t="n">
+        <v>0.7110651438379891</v>
+      </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
         <v>8</v>
       </c>
-      <c r="BA29" t="n">
-        <v>0.7780095464265351</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>0.8048239612191262</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF29" t="n">
-        <v>10</v>
-      </c>
-      <c r="BG29" t="n">
-        <v>0.873195254710622</v>
-      </c>
-      <c r="BH29" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI29" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ29" t="n">
-        <v>0.6342089674910375</v>
-      </c>
-      <c r="BK29" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL29" t="n">
-        <v>10</v>
-      </c>
-      <c r="BM29" t="n">
-        <v>0.9587811256247217</v>
-      </c>
-      <c r="BN29" t="n">
-        <v>6</v>
-      </c>
-      <c r="BO29" t="n">
-        <v>10</v>
-      </c>
-      <c r="BP29" t="n">
-        <v>0.7461612345760099</v>
-      </c>
-      <c r="BQ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR29" t="n">
-        <v>10</v>
-      </c>
-      <c r="BS29" t="n">
-        <v>0.7074593412035595</v>
-      </c>
-      <c r="BT29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU29" t="n">
-        <v>10</v>
-      </c>
       <c r="BV29" t="n">
-        <v>0.8706165923237347</v>
+        <v>0.8733700642362349</v>
       </c>
       <c r="BW29" t="n">
         <v>0</v>
@@ -7594,16 +7588,16 @@
         <v>1</v>
       </c>
       <c r="BY29" t="n">
-        <v>0.2429013012186988</v>
+        <v>0.2434777446583234</v>
       </c>
       <c r="BZ29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA29" t="n">
         <v>1</v>
       </c>
       <c r="CB29" t="n">
-        <v>0.8311284129374635</v>
+        <v>0.8329377645821183</v>
       </c>
       <c r="CC29" t="n">
         <v>5</v>
@@ -7612,16 +7606,16 @@
         <v>10</v>
       </c>
       <c r="CE29" t="n">
-        <v>0.7069763345894848</v>
+        <v>0.676441730175201</v>
       </c>
       <c r="CF29" t="n">
         <v>0</v>
       </c>
       <c r="CG29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH29" t="n">
-        <v>0.7230169348925422</v>
+        <v>0.6490595476904257</v>
       </c>
       <c r="CI29" t="n">
         <v>0</v>
@@ -7630,7 +7624,7 @@
         <v>1</v>
       </c>
       <c r="CK29" t="n">
-        <v>0.7707157893512752</v>
+        <v>0.7884148088878317</v>
       </c>
       <c r="CL29" t="n">
         <v>0</v>
@@ -7639,7 +7633,7 @@
         <v>5</v>
       </c>
       <c r="CN29" t="n">
-        <v>0.6079501342781866</v>
+        <v>0.6254547614296421</v>
       </c>
       <c r="CO29" t="n">
         <v>0</v>
@@ -7648,13 +7642,13 @@
         <v>1</v>
       </c>
       <c r="CQ29" t="n">
-        <v>0.8724216337329691</v>
+        <v>0.868444793775065</v>
       </c>
       <c r="CR29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CS29" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:97">
@@ -7662,7 +7656,7 @@
         <v>61</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7178664656790771</v>
+        <v>0.7055436044771243</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -7671,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7660991192761615</v>
+        <v>0.7763435151589012</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -7680,7 +7674,7 @@
         <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>0.6672255026910127</v>
+        <v>0.6517137128522741</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -7689,88 +7683,88 @@
         <v>10</v>
       </c>
       <c r="K30" t="n">
-        <v>0.6864717883714119</v>
+        <v>0.6634323924672941</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.7617642734172494</v>
+        <v>0.7693878222469308</v>
       </c>
       <c r="O30" t="n">
         <v>6</v>
       </c>
       <c r="P30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.9092233048612146</v>
+        <v>0.9140333423351199</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T30" t="n">
-        <v>0.6122224538818234</v>
+        <v>0.605527488833235</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V30" t="n">
+        <v>1</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.4940624832201506</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.89279985198254</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.8271880637836002</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.8734239678957056</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
         <v>9</v>
       </c>
-      <c r="W30" t="n">
-        <v>0.4963015716660943</v>
-      </c>
-      <c r="X30" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0.8942613832468528</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0.8179396890321792</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0.8702207435120103</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>10</v>
-      </c>
       <c r="AI30" t="n">
-        <v>0.8393503474423367</v>
+        <v>0.8431991916398882</v>
       </c>
       <c r="AJ30" t="n">
         <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL30" t="n">
-        <v>0.7485855794922727</v>
+        <v>0.7708291675771942</v>
       </c>
       <c r="AM30" t="n">
         <v>2</v>
@@ -7779,7 +7773,7 @@
         <v>2</v>
       </c>
       <c r="AO30" t="n">
-        <v>0.7185934400433567</v>
+        <v>0.7222205444747671</v>
       </c>
       <c r="AP30" t="n">
         <v>4</v>
@@ -7788,7 +7782,7 @@
         <v>10</v>
       </c>
       <c r="AR30" t="n">
-        <v>0.8393349229955999</v>
+        <v>0.8390606739633742</v>
       </c>
       <c r="AS30" t="n">
         <v>0</v>
@@ -7797,7 +7791,7 @@
         <v>1</v>
       </c>
       <c r="AU30" t="n">
-        <v>0.9562355382798826</v>
+        <v>0.9579494611999918</v>
       </c>
       <c r="AV30" t="n">
         <v>0</v>
@@ -7806,16 +7800,16 @@
         <v>9</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.9213724449489989</v>
+        <v>0.9179412278665307</v>
       </c>
       <c r="AY30" t="n">
         <v>4</v>
       </c>
       <c r="AZ30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA30" t="n">
-        <v>0.7726944354091154</v>
+        <v>0.7885289721844437</v>
       </c>
       <c r="BB30" t="n">
         <v>2</v>
@@ -7824,25 +7818,25 @@
         <v>10</v>
       </c>
       <c r="BD30" t="n">
-        <v>0.7663786924462774</v>
+        <v>0.7780223915697382</v>
       </c>
       <c r="BE30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF30" t="n">
         <v>10</v>
       </c>
       <c r="BG30" t="n">
-        <v>0.8752384012103898</v>
+        <v>0.8823026149803755</v>
       </c>
       <c r="BH30" t="n">
         <v>1</v>
       </c>
       <c r="BI30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ30" t="n">
-        <v>0.6340665792665811</v>
+        <v>0.6328795829123538</v>
       </c>
       <c r="BK30" t="n">
         <v>2</v>
@@ -7851,7 +7845,7 @@
         <v>10</v>
       </c>
       <c r="BM30" t="n">
-        <v>0.5462317041336289</v>
+        <v>0.5493579377651543</v>
       </c>
       <c r="BN30" t="n">
         <v>10</v>
@@ -7860,7 +7854,7 @@
         <v>10</v>
       </c>
       <c r="BP30" t="n">
-        <v>0.6983003931617296</v>
+        <v>0.6960281119962183</v>
       </c>
       <c r="BQ30" t="n">
         <v>1</v>
@@ -7869,16 +7863,16 @@
         <v>8</v>
       </c>
       <c r="BS30" t="n">
-        <v>0.7098519887950568</v>
+        <v>0.7134628374057518</v>
       </c>
       <c r="BT30" t="n">
         <v>0</v>
       </c>
       <c r="BU30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BV30" t="n">
-        <v>0.8672382922955603</v>
+        <v>0.8742180580808231</v>
       </c>
       <c r="BW30" t="n">
         <v>0</v>
@@ -7887,16 +7881,16 @@
         <v>1</v>
       </c>
       <c r="BY30" t="n">
-        <v>0.2455531757753028</v>
+        <v>0.2459134383349122</v>
       </c>
       <c r="BZ30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA30" t="n">
         <v>1</v>
       </c>
       <c r="CB30" t="n">
-        <v>0.8197893465804025</v>
+        <v>0.8235738702003715</v>
       </c>
       <c r="CC30" t="n">
         <v>4</v>
@@ -7905,25 +7899,25 @@
         <v>10</v>
       </c>
       <c r="CE30" t="n">
-        <v>0.7165765418189373</v>
+        <v>0.6813768749543396</v>
       </c>
       <c r="CF30" t="n">
         <v>0</v>
       </c>
       <c r="CG30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH30" t="n">
-        <v>0.5904554015892456</v>
+        <v>0.5899663864836658</v>
       </c>
       <c r="CI30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CJ30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CK30" t="n">
-        <v>0.7486887905221126</v>
+        <v>0.7692266788825471</v>
       </c>
       <c r="CL30" t="n">
         <v>1</v>
@@ -7932,7 +7926,7 @@
         <v>4</v>
       </c>
       <c r="CN30" t="n">
-        <v>0.6161706618859694</v>
+        <v>0.6289476267307619</v>
       </c>
       <c r="CO30" t="n">
         <v>0</v>
@@ -7941,10 +7935,10 @@
         <v>1</v>
       </c>
       <c r="CQ30" t="n">
-        <v>0.8718018380886939</v>
+        <v>0.8682714839414446</v>
       </c>
       <c r="CR30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CS30" t="n">
         <v>10</v>
@@ -7955,7 +7949,7 @@
         <v>62</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7240370882070281</v>
+        <v>0.7067441389585792</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -7964,16 +7958,16 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7549259136656911</v>
+        <v>0.76835288631587</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6490592384517002</v>
+        <v>0.641521108343294</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -7982,43 +7976,43 @@
         <v>10</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6828095157284317</v>
+        <v>0.6612784522212457</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.7620233690241385</v>
+        <v>0.7690010457828396</v>
       </c>
       <c r="O31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.9081012465011771</v>
+        <v>0.9117262058428895</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T31" t="n">
-        <v>0.6058659793619352</v>
+        <v>0.6005858348947338</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V31" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="W31" t="n">
-        <v>0.4850699242342191</v>
+        <v>0.4837568089043985</v>
       </c>
       <c r="X31" t="n">
         <v>3</v>
@@ -8027,7 +8021,7 @@
         <v>1</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.8892222648357084</v>
+        <v>0.8864900700257512</v>
       </c>
       <c r="AA31" t="n">
         <v>2</v>
@@ -8036,7 +8030,7 @@
         <v>10</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.8184332046101885</v>
+        <v>0.8249931961685436</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -8045,25 +8039,25 @@
         <v>10</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.8530978957615765</v>
+        <v>0.8563047832794461</v>
       </c>
       <c r="AG31" t="n">
         <v>1</v>
       </c>
       <c r="AH31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.8294512942591294</v>
+        <v>0.81990307132092</v>
       </c>
       <c r="AJ31" t="n">
         <v>0</v>
       </c>
       <c r="AK31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.7533014599661598</v>
+        <v>0.7750169538275357</v>
       </c>
       <c r="AM31" t="n">
         <v>2</v>
@@ -8072,16 +8066,16 @@
         <v>2</v>
       </c>
       <c r="AO31" t="n">
-        <v>0.7125908834150987</v>
+        <v>0.7148161741506948</v>
       </c>
       <c r="AP31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ31" t="n">
         <v>10</v>
       </c>
       <c r="AR31" t="n">
-        <v>0.7375510770919573</v>
+        <v>0.7374543011331598</v>
       </c>
       <c r="AS31" t="n">
         <v>0</v>
@@ -8090,7 +8084,7 @@
         <v>1</v>
       </c>
       <c r="AU31" t="n">
-        <v>0.9518589634166154</v>
+        <v>0.9557753656958566</v>
       </c>
       <c r="AV31" t="n">
         <v>0</v>
@@ -8099,79 +8093,79 @@
         <v>9</v>
       </c>
       <c r="AX31" t="n">
-        <v>0.9180407470600326</v>
+        <v>0.9157036052758186</v>
       </c>
       <c r="AY31" t="n">
         <v>4</v>
       </c>
       <c r="AZ31" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0.7714769361110023</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0.7158057132440907</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>0.8827062229834657</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>0.6184455540638538</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>10</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>0.5601209054346912</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>10</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>0.6524856647393202</v>
+      </c>
+      <c r="BQ31" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR31" t="n">
+        <v>3</v>
+      </c>
+      <c r="BS31" t="n">
+        <v>0.7113592642181971</v>
+      </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
         <v>8</v>
       </c>
-      <c r="BA31" t="n">
-        <v>0.7555513238184579</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>0.7008091300773972</v>
-      </c>
-      <c r="BE31" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF31" t="n">
-        <v>10</v>
-      </c>
-      <c r="BG31" t="n">
-        <v>0.8773901747198626</v>
-      </c>
-      <c r="BH31" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI31" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ31" t="n">
-        <v>0.6244789918629747</v>
-      </c>
-      <c r="BK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL31" t="n">
-        <v>10</v>
-      </c>
-      <c r="BM31" t="n">
-        <v>0.5566599910255533</v>
-      </c>
-      <c r="BN31" t="n">
-        <v>10</v>
-      </c>
-      <c r="BO31" t="n">
-        <v>10</v>
-      </c>
-      <c r="BP31" t="n">
-        <v>0.6531249622045908</v>
-      </c>
-      <c r="BQ31" t="n">
-        <v>2</v>
-      </c>
-      <c r="BR31" t="n">
-        <v>3</v>
-      </c>
-      <c r="BS31" t="n">
-        <v>0.7067736563018967</v>
-      </c>
-      <c r="BT31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU31" t="n">
-        <v>10</v>
-      </c>
       <c r="BV31" t="n">
-        <v>0.8722740209944913</v>
+        <v>0.8734596488047445</v>
       </c>
       <c r="BW31" t="n">
         <v>0</v>
@@ -8180,16 +8174,16 @@
         <v>1</v>
       </c>
       <c r="BY31" t="n">
-        <v>0.2470327578542867</v>
+        <v>0.2483325271472282</v>
       </c>
       <c r="BZ31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA31" t="n">
         <v>1</v>
       </c>
       <c r="CB31" t="n">
-        <v>0.8193132899303087</v>
+        <v>0.8229019043519769</v>
       </c>
       <c r="CC31" t="n">
         <v>4</v>
@@ -8198,25 +8192,25 @@
         <v>10</v>
       </c>
       <c r="CE31" t="n">
-        <v>0.7208634491481247</v>
+        <v>0.6847896423334243</v>
       </c>
       <c r="CF31" t="n">
         <v>0</v>
       </c>
       <c r="CG31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH31" t="n">
-        <v>0.5717184514206285</v>
+        <v>0.5613120311468817</v>
       </c>
       <c r="CI31" t="n">
         <v>2</v>
       </c>
       <c r="CJ31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CK31" t="n">
-        <v>0.7237812720269423</v>
+        <v>0.7450713325432516</v>
       </c>
       <c r="CL31" t="n">
         <v>2</v>
@@ -8225,7 +8219,7 @@
         <v>3</v>
       </c>
       <c r="CN31" t="n">
-        <v>0.6234262862195878</v>
+        <v>0.6272304303644924</v>
       </c>
       <c r="CO31" t="n">
         <v>0</v>
@@ -8234,7 +8228,7 @@
         <v>1</v>
       </c>
       <c r="CQ31" t="n">
-        <v>0.8700264262052232</v>
+        <v>0.8648071241741262</v>
       </c>
       <c r="CR31" t="n">
         <v>4</v>
@@ -8248,7 +8242,7 @@
         <v>63</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7175654990497693</v>
+        <v>0.7080106141854745</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -8257,133 +8251,133 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7475998102961019</v>
+        <v>0.7671028990739314</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.6384096619232608</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>10</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.6578741586638314</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.7697378195625617</v>
+      </c>
+      <c r="O32" t="n">
+        <v>6</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.8939938107114744</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.5998307878889921</v>
+      </c>
+      <c r="U32" t="n">
+        <v>6</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.4718590833677914</v>
+      </c>
+      <c r="X32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.8730000923303548</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.8212110038209046</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.8500177967395001</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.8088941916791185</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.7615660415451414</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.7006126528358763</v>
+      </c>
+      <c r="AP32" t="n">
         <v>4</v>
       </c>
-      <c r="H32" t="n">
-        <v>0.6415389763529151</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>10</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.6791487172739361</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>6</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0.7629218806100567</v>
-      </c>
-      <c r="O32" t="n">
-        <v>5</v>
-      </c>
-      <c r="P32" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0.8993490496844317</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>9</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0.6078906032251387</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>9</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0.4713361562871975</v>
-      </c>
-      <c r="X32" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0.8777848899943903</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0.8192486152187415</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0.8418120319318565</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0.8272474686820431</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>5</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>0.7351036545676753</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>0.6938789515356746</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>5</v>
-      </c>
       <c r="AQ32" t="n">
         <v>10</v>
       </c>
       <c r="AR32" t="n">
-        <v>0.7141433391479973</v>
+        <v>0.6471833711296646</v>
       </c>
       <c r="AS32" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT32" t="n">
         <v>1</v>
       </c>
       <c r="AU32" t="n">
-        <v>0.951757007530931</v>
+        <v>0.9524343864469466</v>
       </c>
       <c r="AV32" t="n">
         <v>0</v>
@@ -8392,7 +8386,7 @@
         <v>9</v>
       </c>
       <c r="AX32" t="n">
-        <v>0.909048423072186</v>
+        <v>0.9026873498539941</v>
       </c>
       <c r="AY32" t="n">
         <v>3</v>
@@ -8401,25 +8395,25 @@
         <v>9</v>
       </c>
       <c r="BA32" t="n">
-        <v>0.7551234980563406</v>
+        <v>0.7713608712868131</v>
       </c>
       <c r="BB32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC32" t="n">
         <v>10</v>
       </c>
       <c r="BD32" t="n">
-        <v>0.6619127006459892</v>
+        <v>0.6774581950747842</v>
       </c>
       <c r="BE32" t="n">
         <v>3</v>
       </c>
       <c r="BF32" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BG32" t="n">
-        <v>0.8786620466507594</v>
+        <v>0.8791261624217129</v>
       </c>
       <c r="BH32" t="n">
         <v>1</v>
@@ -8428,7 +8422,7 @@
         <v>3</v>
       </c>
       <c r="BJ32" t="n">
-        <v>0.6269455601358741</v>
+        <v>0.6193328783563657</v>
       </c>
       <c r="BK32" t="n">
         <v>0</v>
@@ -8437,7 +8431,7 @@
         <v>10</v>
       </c>
       <c r="BM32" t="n">
-        <v>0.5555392870186815</v>
+        <v>0.5586885750340852</v>
       </c>
       <c r="BN32" t="n">
         <v>10</v>
@@ -8446,7 +8440,7 @@
         <v>10</v>
       </c>
       <c r="BP32" t="n">
-        <v>0.6172043030119876</v>
+        <v>0.6051189382531275</v>
       </c>
       <c r="BQ32" t="n">
         <v>3</v>
@@ -8455,7 +8449,7 @@
         <v>2</v>
       </c>
       <c r="BS32" t="n">
-        <v>0.7126310096490361</v>
+        <v>0.7123047587115997</v>
       </c>
       <c r="BT32" t="n">
         <v>0</v>
@@ -8464,7 +8458,7 @@
         <v>8</v>
       </c>
       <c r="BV32" t="n">
-        <v>0.8689839092140141</v>
+        <v>0.8746076935688144</v>
       </c>
       <c r="BW32" t="n">
         <v>0</v>
@@ -8473,7 +8467,7 @@
         <v>1</v>
       </c>
       <c r="BY32" t="n">
-        <v>0.2483763277444687</v>
+        <v>0.241902000378432</v>
       </c>
       <c r="BZ32" t="n">
         <v>0</v>
@@ -8482,7 +8476,7 @@
         <v>2</v>
       </c>
       <c r="CB32" t="n">
-        <v>0.8171739966243378</v>
+        <v>0.8201746841886963</v>
       </c>
       <c r="CC32" t="n">
         <v>4</v>
@@ -8491,16 +8485,16 @@
         <v>10</v>
       </c>
       <c r="CE32" t="n">
-        <v>0.7349082098410197</v>
+        <v>0.6809793483522115</v>
       </c>
       <c r="CF32" t="n">
         <v>0</v>
       </c>
       <c r="CG32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH32" t="n">
-        <v>0.5436498398115969</v>
+        <v>0.5428062042561752</v>
       </c>
       <c r="CI32" t="n">
         <v>3</v>
@@ -8509,7 +8503,7 @@
         <v>1</v>
       </c>
       <c r="CK32" t="n">
-        <v>0.697235900236268</v>
+        <v>0.7202140049253155</v>
       </c>
       <c r="CL32" t="n">
         <v>3</v>
@@ -8518,7 +8512,7 @@
         <v>2</v>
       </c>
       <c r="CN32" t="n">
-        <v>0.6304105998672509</v>
+        <v>0.6334593254192553</v>
       </c>
       <c r="CO32" t="n">
         <v>0</v>
@@ -8527,13 +8521,1185 @@
         <v>1</v>
       </c>
       <c r="CQ32" t="n">
-        <v>0.8652155101383823</v>
+        <v>0.8615661521177037</v>
       </c>
       <c r="CR32" t="n">
+        <v>6</v>
+      </c>
+      <c r="CS32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:97">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.7159772633377173</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.7675669107810044</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.6388491837491085</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>10</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.6601903458202413</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.7715137332236219</v>
+      </c>
+      <c r="O33" t="n">
+        <v>6</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.8913864837551102</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.5994105826197673</v>
+      </c>
+      <c r="U33" t="n">
+        <v>6</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.4786903046852406</v>
+      </c>
+      <c r="X33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.8539569715882528</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.8147252241624234</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.8388669115235788</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH33" t="n">
         <v>4</v>
       </c>
-      <c r="CS32" t="n">
-        <v>10</v>
+      <c r="AI33" t="n">
+        <v>0.7953032060912292</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.7644607015747443</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.691549869108815</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.6407012815339193</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0.9521859870591495</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0.8924671202610083</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>0.771527960162913</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>0.6264275489799361</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>0.8698485413461834</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>0.6277271352074613</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>0.5532777032490376</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>0.5532930244386749</v>
+      </c>
+      <c r="BQ33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BR33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS33" t="n">
+        <v>0.7142146003076992</v>
+      </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>8</v>
+      </c>
+      <c r="BV33" t="n">
+        <v>0.8785213779653259</v>
+      </c>
+      <c r="BW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY33" t="n">
+        <v>0.2441472312711995</v>
+      </c>
+      <c r="BZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA33" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB33" t="n">
+        <v>0.8137946487174822</v>
+      </c>
+      <c r="CC33" t="n">
+        <v>4</v>
+      </c>
+      <c r="CD33" t="n">
+        <v>10</v>
+      </c>
+      <c r="CE33" t="n">
+        <v>0.68400989739233</v>
+      </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG33" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH33" t="n">
+        <v>0.4963711730267851</v>
+      </c>
+      <c r="CI33" t="n">
+        <v>4</v>
+      </c>
+      <c r="CJ33" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK33" t="n">
+        <v>0.7085964013226503</v>
+      </c>
+      <c r="CL33" t="n">
+        <v>4</v>
+      </c>
+      <c r="CM33" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN33" t="n">
+        <v>0.6403216392854204</v>
+      </c>
+      <c r="CO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP33" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ33" t="n">
+        <v>0.8540299007650528</v>
+      </c>
+      <c r="CR33" t="n">
+        <v>6</v>
+      </c>
+      <c r="CS33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:97">
+      <c r="A34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.7244452604619253</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.7708190309305526</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.6391749322297094</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>10</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.6620681629419238</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.7717126099183773</v>
+      </c>
+      <c r="O34" t="n">
+        <v>6</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.8869994008073864</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.5938303597393013</v>
+      </c>
+      <c r="U34" t="n">
+        <v>6</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.4874224377557809</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.8366590409335523</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.80944164993829</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.8306421269658014</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0.7746216384376199</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0.7638572794043992</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0.6805073177256129</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0.640407002410413</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0.9515338035962844</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>0.8711401533348273</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>0.7616932073910777</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>0.5894306318408742</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>0.8600440828237185</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>0.6376086713132602</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>0.5494724769724918</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>0.4567069008946592</v>
+      </c>
+      <c r="BQ34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BR34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS34" t="n">
+        <v>0.717917726133061</v>
+      </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>8</v>
+      </c>
+      <c r="BV34" t="n">
+        <v>0.8813317345822453</v>
+      </c>
+      <c r="BW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY34" t="n">
+        <v>0.2462768576533516</v>
+      </c>
+      <c r="BZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA34" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB34" t="n">
+        <v>0.8137227314989477</v>
+      </c>
+      <c r="CC34" t="n">
+        <v>4</v>
+      </c>
+      <c r="CD34" t="n">
+        <v>10</v>
+      </c>
+      <c r="CE34" t="n">
+        <v>0.6903511163180805</v>
+      </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG34" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH34" t="n">
+        <v>0.3710029745595026</v>
+      </c>
+      <c r="CI34" t="n">
+        <v>5</v>
+      </c>
+      <c r="CJ34" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK34" t="n">
+        <v>0.6181087905565481</v>
+      </c>
+      <c r="CL34" t="n">
+        <v>4</v>
+      </c>
+      <c r="CM34" t="n">
+        <v>2</v>
+      </c>
+      <c r="CN34" t="n">
+        <v>0.6462956415175192</v>
+      </c>
+      <c r="CO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP34" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ34" t="n">
+        <v>0.8540670052289524</v>
+      </c>
+      <c r="CR34" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:97">
+      <c r="A35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.7336635540306728</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.7757065847174719</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.6422311357880578</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>10</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.6663296703015226</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.7728250027503972</v>
+      </c>
+      <c r="O35" t="n">
+        <v>6</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.852826269779726</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>8</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.5963122656695058</v>
+      </c>
+      <c r="U35" t="n">
+        <v>6</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.4986316126933005</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.8124102541615891</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.8065873342194341</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.8269723363784278</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.7591515672475336</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.7668903389204561</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.6784985391102659</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.6398835379258844</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.9485520139852196</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>0.8564211894803032</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0.7561007970855346</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>0.5365321465187387</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>0.8550172635802499</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>0.6492165840304365</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>10</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>0.5455240609167359</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>10</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>0.4080255212451075</v>
+      </c>
+      <c r="BQ35" t="n">
+        <v>6</v>
+      </c>
+      <c r="BR35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS35" t="n">
+        <v>0.7217939222821962</v>
+      </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>8</v>
+      </c>
+      <c r="BV35" t="n">
+        <v>0.8847026683183251</v>
+      </c>
+      <c r="BW35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY35" t="n">
+        <v>0.2482457483785465</v>
+      </c>
+      <c r="BZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA35" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB35" t="n">
+        <v>0.8113897091519756</v>
+      </c>
+      <c r="CC35" t="n">
+        <v>4</v>
+      </c>
+      <c r="CD35" t="n">
+        <v>9</v>
+      </c>
+      <c r="CE35" t="n">
+        <v>0.7017359542794931</v>
+      </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG35" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH35" t="n">
+        <v>0.2885721878148235</v>
+      </c>
+      <c r="CI35" t="n">
+        <v>6</v>
+      </c>
+      <c r="CJ35" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK35" t="n">
+        <v>0.5286607447678474</v>
+      </c>
+      <c r="CL35" t="n">
+        <v>6</v>
+      </c>
+      <c r="CM35" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN35" t="n">
+        <v>0.6519316732456935</v>
+      </c>
+      <c r="CO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP35" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ35" t="n">
+        <v>0.8552575724582709</v>
+      </c>
+      <c r="CR35" t="n">
+        <v>6</v>
+      </c>
+      <c r="CS35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:97">
+      <c r="A36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.7433408292918158</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.7801049454329182</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.6459655218068273</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>10</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.6710038006699275</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.7732007911055413</v>
+      </c>
+      <c r="O36" t="n">
+        <v>6</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.8382007404746067</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>8</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.5969934892444113</v>
+      </c>
+      <c r="U36" t="n">
+        <v>6</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.5050546853921939</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.7943768977925457</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.8055794406216314</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.7549998141757291</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.7491807583541727</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.7733330474519752</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.6730215882995276</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.6390425914851174</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0.9461880261867287</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>0.8269317811172041</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>0.7576367509489101</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>0.4877565497500423</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>0.85393492539547</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>0.6609644049089028</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>10</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>0.5416885498256788</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>10</v>
+      </c>
+      <c r="BP36" t="n">
+        <v>0.3090086530117932</v>
+      </c>
+      <c r="BQ36" t="n">
+        <v>7</v>
+      </c>
+      <c r="BR36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS36" t="n">
+        <v>0.7261920091044547</v>
+      </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>8</v>
+      </c>
+      <c r="BV36" t="n">
+        <v>0.8886671654254568</v>
+      </c>
+      <c r="BW36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY36" t="n">
+        <v>0.2500840383394413</v>
+      </c>
+      <c r="BZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA36" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB36" t="n">
+        <v>0.8101602512861413</v>
+      </c>
+      <c r="CC36" t="n">
+        <v>4</v>
+      </c>
+      <c r="CD36" t="n">
+        <v>9</v>
+      </c>
+      <c r="CE36" t="n">
+        <v>0.712094875580942</v>
+      </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG36" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH36" t="n">
+        <v>0.2293384872641032</v>
+      </c>
+      <c r="CI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ36" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK36" t="n">
+        <v>0.4784229844736109</v>
+      </c>
+      <c r="CL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM36" t="n">
+        <v>7</v>
+      </c>
+      <c r="CN36" t="n">
+        <v>0.6569604801175069</v>
+      </c>
+      <c r="CO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP36" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ36" t="n">
+        <v>0.8567886674082232</v>
+      </c>
+      <c r="CR36" t="n">
+        <v>6</v>
+      </c>
+      <c r="CS36" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
